--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project2\noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC6F70-ED73-46F3-8E9C-526F5B86350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC78FFD-2116-495A-B70A-8F578FF02186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="276" windowWidth="10884" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>noise level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,45 @@
   </si>
   <si>
     <t>w/o Noise injection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,8 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -207,7 +249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -777,7 +819,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -896,7 +938,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1038,7 +1080,1613 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.290909090909089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.260909090909088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.18090909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.120909090909088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.940909090909088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.790909090909089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.590909090909086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.410909090909087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.190909090909088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.980909090909087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.060909090909085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.970909090909089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.980909090909087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.980909090909087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.960909090909084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.930909090909083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.870909090909088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.770909090909086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.690909090909088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.560909090909085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.410909090909087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.400909090909089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.43090909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.43090909090909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.490909090909085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.43090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.410909090909087</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.390909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.340909090909086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.300909090909087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$14:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.280909090909091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.270909090909086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.260909090909088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.210909090909091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.18090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.150909090909089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.150909090909089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.140909090909091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.120909090909088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.270909090909086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.230909090909087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.25090909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.230909090909087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.220909090909089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.160909090909087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.140909090909084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.100909090909084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.050909090909087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.040909090909089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$14:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.650909090909089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.730909090909087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.770909090909086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.840909090909086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.790909090909089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.790909090909089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.800909090909087</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.810909090909092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.800909090909087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.770909090909086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$14:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.310909090909092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.290909090909089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.32090909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.32090909090909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.300909090909087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.270909090909086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.280909090909091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.290909090909089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.270909090909086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.25090909090909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$14:$W$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.440909090909088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.550909090909087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.640909090909084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.640909090909084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.640909090909084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.650909090909089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.630909090909086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.620909090909088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.660909090909087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.650909090909089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$14:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.310909090909085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.390909090909084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.400909090909089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.390909090909084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.350909090909084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.36090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.36090909090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.390909090909084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.36090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.370909090909088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$14:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.230909090909087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.240909090909085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.280909090909084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.290909090909089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.350909090909084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.360909090909082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.340909090909086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.340909090909086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$14:$Z$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.330909090909088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.36090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.270909090909086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.310909090909085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.260909090909088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.270909090909086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.25090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.240909090909085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.220909090909089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.210909090909091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.230909090909087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1851056704"/>
+        <c:axId val="1851053344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1851056704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851053344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851053344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851056704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1594,20 +3242,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1627,6 +3791,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381236</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>482836</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168747</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA30B92-9874-4502-CBBF-79F76A8C051D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1898,15 +4098,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="136" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1937,8 +4137,44 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1958,11 +4194,11 @@
         <v>65.8</v>
       </c>
       <c r="H2">
-        <f>AVERAGE(C2:G2)</f>
+        <f t="shared" ref="H2:H12" si="0">AVERAGE(C2:G2)</f>
         <v>67.867999999999995</v>
       </c>
       <c r="I2">
-        <f>STDEV(C2:G2)</f>
+        <f t="shared" ref="I2:I12" si="1">STDEV(C2:G2)</f>
         <v>1.4348937242876234</v>
       </c>
       <c r="J2">
@@ -1973,8 +4209,48 @@
         <f>H2-H15</f>
         <v>5.1439999999999912</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>58.93</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>57.88</v>
+      </c>
+      <c r="R2" s="1">
+        <v>57</v>
+      </c>
+      <c r="S2" s="1">
+        <v>59.22</v>
+      </c>
+      <c r="T2" s="1">
+        <v>58.35</v>
+      </c>
+      <c r="U2" s="1">
+        <v>57.79</v>
+      </c>
+      <c r="V2" s="1">
+        <v>58.22</v>
+      </c>
+      <c r="W2" s="1">
+        <v>58.42</v>
+      </c>
+      <c r="X2" s="1">
+        <v>58.99</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>58.38</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>58.46</v>
+      </c>
+      <c r="AB2">
+        <f>AVERAGE(P2:Z2)</f>
+        <v>58.330909090909088</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -1994,19 +4270,55 @@
         <v>65.3</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>67.527999999999992</v>
       </c>
       <c r="I3">
-        <f>STDEV(C3:G3)</f>
+        <f t="shared" si="1"/>
         <v>1.8256286588460418</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J12" si="0">H3</f>
+        <f t="shared" ref="J3:J12" si="2">H3</f>
         <v>67.527999999999992</v>
       </c>
+      <c r="O3">
+        <v>0.05</v>
+      </c>
+      <c r="P3" s="1">
+        <v>58.89</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>57.61</v>
+      </c>
+      <c r="R3" s="1">
+        <v>57.08</v>
+      </c>
+      <c r="S3" s="1">
+        <v>59.22</v>
+      </c>
+      <c r="T3" s="1">
+        <v>58.29</v>
+      </c>
+      <c r="U3" s="1">
+        <v>58.11</v>
+      </c>
+      <c r="V3" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>58.53</v>
+      </c>
+      <c r="X3" s="1">
+        <v>58.97</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>58.28</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>58.49</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -2026,19 +4338,55 @@
         <v>66.099999999999994</v>
       </c>
       <c r="H4">
-        <f>AVERAGE(C4:G4)</f>
-        <v>67.631999999999991</v>
-      </c>
-      <c r="I4">
-        <f>STDEV(C4:G4)</f>
-        <v>1.3626151327502591</v>
-      </c>
-      <c r="J4">
         <f t="shared" si="0"/>
         <v>67.631999999999991</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.3626151327502591</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>67.631999999999991</v>
+      </c>
+      <c r="O4">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>58.86</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>57.52</v>
+      </c>
+      <c r="R4" s="1">
+        <v>57.07</v>
+      </c>
+      <c r="S4" s="1">
+        <v>59.17</v>
+      </c>
+      <c r="T4" s="1">
+        <v>58.25</v>
+      </c>
+      <c r="U4" s="1">
+        <v>58.19</v>
+      </c>
+      <c r="V4" s="1">
+        <v>58.18</v>
+      </c>
+      <c r="W4" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="X4" s="1">
+        <v>59.05</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>58.29</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>58.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.15</v>
       </c>
@@ -2058,19 +4406,55 @@
         <v>67.3</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(C5:G5)</f>
-        <v>68.38</v>
-      </c>
-      <c r="I5">
-        <f>STDEV(C5:G5)</f>
-        <v>1.1028145809699832</v>
-      </c>
-      <c r="J5">
         <f t="shared" si="0"/>
         <v>68.38</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.1028145809699832</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>68.38</v>
+      </c>
+      <c r="O5">
+        <v>0.15</v>
+      </c>
+      <c r="P5" s="1">
+        <v>58.78</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>57.53</v>
+      </c>
+      <c r="R5" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>59.16</v>
+      </c>
+      <c r="T5" s="1">
+        <v>58.27</v>
+      </c>
+      <c r="U5" s="1">
+        <v>58.23</v>
+      </c>
+      <c r="V5" s="1">
+        <v>58.21</v>
+      </c>
+      <c r="W5" s="1">
+        <v>58.73</v>
+      </c>
+      <c r="X5" s="1">
+        <v>59.06</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>58.33</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>58.44</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -2090,19 +4474,55 @@
         <v>64.7</v>
       </c>
       <c r="H6">
-        <f>AVERAGE(C6:G6)</f>
-        <v>68.043999999999997</v>
-      </c>
-      <c r="I6">
-        <f>STDEV(C6:G6)</f>
-        <v>2.6027447051141976</v>
-      </c>
-      <c r="J6">
         <f t="shared" si="0"/>
         <v>68.043999999999997</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>2.6027447051141976</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>68.043999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>58.72</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>57.53</v>
+      </c>
+      <c r="R6" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>59.15</v>
+      </c>
+      <c r="T6" s="1">
+        <v>58.25</v>
+      </c>
+      <c r="U6" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="V6" s="1">
+        <v>58.21</v>
+      </c>
+      <c r="W6" s="1">
+        <v>58.73</v>
+      </c>
+      <c r="X6" s="1">
+        <v>59.05</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>58.34</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>58.39</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -2122,19 +4542,55 @@
         <v>67.3</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(C7:G7)</f>
-        <v>68.447999999999993</v>
-      </c>
-      <c r="I7">
-        <f>STDEV(C7:G7)</f>
-        <v>0.9743305393961561</v>
-      </c>
-      <c r="J7">
         <f t="shared" si="0"/>
         <v>68.447999999999993</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.9743305393961561</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>68.447999999999993</v>
+      </c>
+      <c r="O7">
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="1">
+        <v>58.54</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>57.51</v>
+      </c>
+      <c r="R7" s="1">
+        <v>57.16</v>
+      </c>
+      <c r="S7" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>58.24</v>
+      </c>
+      <c r="U7" s="1">
+        <v>58.25</v>
+      </c>
+      <c r="V7" s="1">
+        <v>58.19</v>
+      </c>
+      <c r="W7" s="1">
+        <v>58.73</v>
+      </c>
+      <c r="X7" s="1">
+        <v>59.01</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>58.38</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>58.4</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.3</v>
       </c>
@@ -2154,19 +4610,55 @@
         <v>64.7</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(C8:G8)</f>
-        <v>67.984000000000009</v>
-      </c>
-      <c r="I8">
-        <f>STDEV(C8:G8)</f>
-        <v>1.9641995825271923</v>
-      </c>
-      <c r="J8">
         <f t="shared" si="0"/>
         <v>67.984000000000009</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.9641995825271923</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>67.984000000000009</v>
+      </c>
+      <c r="O8">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>58.39</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>57.48</v>
+      </c>
+      <c r="R8" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>59.07</v>
+      </c>
+      <c r="T8" s="1">
+        <v>58.18</v>
+      </c>
+      <c r="U8" s="1">
+        <v>58.25</v>
+      </c>
+      <c r="V8" s="1">
+        <v>58.16</v>
+      </c>
+      <c r="W8" s="1">
+        <v>58.74</v>
+      </c>
+      <c r="X8" s="1">
+        <v>59.02</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>58.38</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>58.38</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.35</v>
       </c>
@@ -2186,19 +4678,55 @@
         <v>65.5</v>
       </c>
       <c r="H9">
-        <f>AVERAGE(C9:G9)</f>
-        <v>67.748000000000005</v>
-      </c>
-      <c r="I9">
-        <f>STDEV(C9:G9)</f>
-        <v>1.4622311718739984</v>
-      </c>
-      <c r="J9">
         <f t="shared" si="0"/>
         <v>67.748000000000005</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.4622311718739984</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>67.748000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.35</v>
+      </c>
+      <c r="P9" s="1">
+        <v>58.19</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>57.42</v>
+      </c>
+      <c r="R9" s="1">
+        <v>57.08</v>
+      </c>
+      <c r="S9" s="1">
+        <v>59.04</v>
+      </c>
+      <c r="T9" s="1">
+        <v>58.16</v>
+      </c>
+      <c r="U9" s="1">
+        <v>58.26</v>
+      </c>
+      <c r="V9" s="1">
+        <v>58.17</v>
+      </c>
+      <c r="W9" s="1">
+        <v>58.72</v>
+      </c>
+      <c r="X9" s="1">
+        <v>59.02</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>58.37</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.4</v>
       </c>
@@ -2218,19 +4746,55 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <f>AVERAGE(C10:G10)</f>
-        <v>68.068000000000012</v>
-      </c>
-      <c r="I10">
-        <f>STDEV(C10:G10)</f>
-        <v>2.0234920311184825</v>
-      </c>
-      <c r="J10">
         <f t="shared" si="0"/>
         <v>68.068000000000012</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>2.0234920311184825</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>68.068000000000012</v>
+      </c>
+      <c r="O10">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>58.01</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>57.32</v>
+      </c>
+      <c r="R10" s="1">
+        <v>57.06</v>
+      </c>
+      <c r="S10" s="1">
+        <v>59.04</v>
+      </c>
+      <c r="T10" s="1">
+        <v>58.12</v>
+      </c>
+      <c r="U10" s="1">
+        <v>58.27</v>
+      </c>
+      <c r="V10" s="1">
+        <v>58.18</v>
+      </c>
+      <c r="W10" s="1">
+        <v>58.71</v>
+      </c>
+      <c r="X10" s="1">
+        <v>59.05</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>58.41</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>58.35</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.45</v>
       </c>
@@ -2250,19 +4814,55 @@
         <v>65.099999999999994</v>
       </c>
       <c r="H11">
-        <f>AVERAGE(C11:G11)</f>
-        <v>67.768000000000001</v>
-      </c>
-      <c r="I11">
-        <f>STDEV(C11:G11)</f>
-        <v>1.6144101089871834</v>
-      </c>
-      <c r="J11">
         <f t="shared" si="0"/>
         <v>67.768000000000001</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.6144101089871834</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>67.768000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.45</v>
+      </c>
+      <c r="P11" s="1">
+        <v>57.79</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>57.24</v>
+      </c>
+      <c r="R11" s="1">
+        <v>57.01</v>
+      </c>
+      <c r="S11" s="1">
+        <v>59.03</v>
+      </c>
+      <c r="T11" s="1">
+        <v>58.07</v>
+      </c>
+      <c r="U11" s="1">
+        <v>58.26</v>
+      </c>
+      <c r="V11" s="1">
+        <v>58.16</v>
+      </c>
+      <c r="W11" s="1">
+        <v>58.75</v>
+      </c>
+      <c r="X11" s="1">
+        <v>59.02</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>58.39</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>58.34</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -2282,19 +4882,55 @@
         <v>64.3</v>
       </c>
       <c r="H12">
-        <f>AVERAGE(C12:G12)</f>
-        <v>67.7</v>
-      </c>
-      <c r="I12">
-        <f>STDEV(C12:G12)</f>
-        <v>2.188332698654389</v>
-      </c>
-      <c r="J12">
         <f t="shared" si="0"/>
         <v>67.7</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2.188332698654389</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>67.7</v>
+      </c>
+      <c r="O12">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>57.58</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>57.11</v>
+      </c>
+      <c r="R12" s="1">
+        <v>56.97</v>
+      </c>
+      <c r="S12" s="1">
+        <v>59.01</v>
+      </c>
+      <c r="T12" s="1">
+        <v>58.06</v>
+      </c>
+      <c r="U12" s="1">
+        <v>58.23</v>
+      </c>
+      <c r="V12" s="1">
+        <v>58.14</v>
+      </c>
+      <c r="W12" s="1">
+        <v>58.74</v>
+      </c>
+      <c r="X12" s="1">
+        <v>59.03</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>58.39</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>58.36</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -2319,8 +4955,55 @@
       <c r="J14" t="s">
         <v>5</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>P2+($AB$2-P$2)</f>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Z14" si="3">Q2+($AB$2-Q$2)</f>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>58.330909090909088</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>60.6</v>
       </c>
@@ -2337,19 +5020,66 @@
         <v>65.739999999999995</v>
       </c>
       <c r="H15">
-        <f>AVERAGE(C15:G15)</f>
+        <f t="shared" ref="H15:H25" si="4">AVERAGE(C15:G15)</f>
         <v>62.724000000000004</v>
       </c>
       <c r="I15">
-        <f>STDEV(C15:G15)</f>
+        <f t="shared" ref="I15:I25" si="5">STDEV(C15:G15)</f>
         <v>3.2575266691156952</v>
       </c>
       <c r="J15">
-        <f>H15+$K$2</f>
+        <f t="shared" ref="J15:J25" si="6">H15+$K$2</f>
         <v>67.867999999999995</v>
       </c>
+      <c r="O15">
+        <v>2E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:Z15" si="7">P3+($AB$2-P$2)</f>
+        <v>58.290909090909089</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>58.060909090909085</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>58.410909090909087</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>58.270909090909086</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>58.650909090909089</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="7"/>
+        <v>58.310909090909092</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>58.440909090909088</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>58.310909090909085</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>58.230909090909087</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>58.36090909090909</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>62.16</v>
       </c>
@@ -2366,19 +5096,66 @@
         <v>63.24</v>
       </c>
       <c r="H16">
-        <f>AVERAGE(C16:G16)</f>
+        <f t="shared" si="4"/>
         <v>62.331999999999994</v>
       </c>
       <c r="I16">
-        <f>STDEV(C16:G16)</f>
+        <f t="shared" si="5"/>
         <v>2.2373913381435968</v>
       </c>
       <c r="J16">
-        <f>H16+$K$2</f>
+        <f t="shared" si="6"/>
         <v>67.475999999999985</v>
       </c>
+      <c r="O16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:Z16" si="8">P4+($AB$2-P$2)</f>
+        <v>58.260909090909088</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="8"/>
+        <v>57.970909090909089</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>58.400909090909089</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
+        <v>58.280909090909091</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>58.230909090909087</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>58.730909090909087</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="8"/>
+        <v>58.290909090909089</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>58.550909090909087</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="8"/>
+        <v>58.390909090909084</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="8"/>
+        <v>58.240909090909085</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="8"/>
+        <v>58.270909090909086</v>
+      </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>59.44</v>
       </c>
@@ -2395,19 +5172,66 @@
         <v>59.86</v>
       </c>
       <c r="H17">
-        <f>AVERAGE(C17:G17)</f>
+        <f t="shared" si="4"/>
         <v>60.396000000000001</v>
       </c>
       <c r="I17">
-        <f>STDEV(C17:G17)</f>
+        <f t="shared" si="5"/>
         <v>1.5851435266246414</v>
       </c>
       <c r="J17">
-        <f>H17+$K$2</f>
+        <f t="shared" si="6"/>
         <v>65.539999999999992</v>
       </c>
+      <c r="O17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:Z17" si="9">P5+($AB$2-P$2)</f>
+        <v>58.18090909090909</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>57.980909090909087</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="9"/>
+        <v>58.43090909090909</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="9"/>
+        <v>58.270909090909086</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>58.25090909090909</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>58.770909090909086</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>58.32090909090909</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>58.640909090909084</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="9"/>
+        <v>58.400909090909089</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="9"/>
+        <v>58.280909090909084</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="9"/>
+        <v>58.310909090909085</v>
+      </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>59.54</v>
       </c>
@@ -2424,19 +5248,66 @@
         <v>59.08</v>
       </c>
       <c r="H18">
-        <f>AVERAGE(C18:G18)</f>
+        <f t="shared" si="4"/>
         <v>60.132000000000005</v>
       </c>
       <c r="I18">
-        <f>STDEV(C18:G18)</f>
+        <f t="shared" si="5"/>
         <v>1.8781160773498529</v>
       </c>
       <c r="J18">
-        <f>H18+$K$2</f>
+        <f t="shared" si="6"/>
         <v>65.275999999999996</v>
       </c>
+      <c r="O18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:Z18" si="10">P6+($AB$2-P$2)</f>
+        <v>58.120909090909088</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>57.980909090909087</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>58.43090909090909</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="10"/>
+        <v>58.260909090909088</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="10"/>
+        <v>58.230909090909087</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>58.840909090909086</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>58.32090909090909</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="10"/>
+        <v>58.640909090909084</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="10"/>
+        <v>58.390909090909084</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="10"/>
+        <v>58.290909090909089</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="10"/>
+        <v>58.260909090909088</v>
+      </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>57.04</v>
       </c>
@@ -2453,19 +5324,66 @@
         <v>55.88</v>
       </c>
       <c r="H19">
-        <f>AVERAGE(C19:G19)</f>
+        <f t="shared" si="4"/>
         <v>58.072000000000003</v>
       </c>
       <c r="I19">
-        <f>STDEV(C19:G19)</f>
+        <f t="shared" si="5"/>
         <v>2.2248415673930579</v>
       </c>
       <c r="J19">
-        <f>H19+$K$2</f>
+        <f t="shared" si="6"/>
         <v>63.215999999999994</v>
       </c>
+      <c r="O19">
+        <v>0.01</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:Z19" si="11">P7+($AB$2-P$2)</f>
+        <v>57.940909090909088</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="11"/>
+        <v>57.960909090909084</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="11"/>
+        <v>58.490909090909085</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>58.210909090909091</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="11"/>
+        <v>58.220909090909089</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="11"/>
+        <v>58.790909090909089</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="11"/>
+        <v>58.300909090909087</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="11"/>
+        <v>58.640909090909084</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="11"/>
+        <v>58.350909090909084</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="11"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="11"/>
+        <v>58.270909090909086</v>
+      </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>56.96</v>
       </c>
@@ -2482,19 +5400,66 @@
         <v>54.9</v>
       </c>
       <c r="H20">
-        <f>AVERAGE(C20:G20)</f>
+        <f t="shared" si="4"/>
         <v>57.160000000000004</v>
       </c>
       <c r="I20">
-        <f>STDEV(C20:G20)</f>
+        <f t="shared" si="5"/>
         <v>2.117876294782111</v>
       </c>
       <c r="J20">
-        <f>H20+$K$2</f>
+        <f t="shared" si="6"/>
         <v>62.303999999999995</v>
       </c>
+      <c r="O20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:Z20" si="12">P8+($AB$2-P$2)</f>
+        <v>57.790909090909089</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="12"/>
+        <v>57.930909090909083</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="12"/>
+        <v>58.43090909090909</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="12"/>
+        <v>58.18090909090909</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>58.160909090909087</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="12"/>
+        <v>58.790909090909089</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="12"/>
+        <v>58.270909090909086</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="12"/>
+        <v>58.650909090909089</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="12"/>
+        <v>58.36090909090909</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="12"/>
+        <v>58.330909090909088</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="12"/>
+        <v>58.25090909090909</v>
+      </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>56.18</v>
       </c>
@@ -2511,19 +5476,66 @@
         <v>56.5</v>
       </c>
       <c r="H21">
-        <f>AVERAGE(C21:G21)</f>
+        <f t="shared" si="4"/>
         <v>57.396000000000001</v>
       </c>
       <c r="I21">
-        <f>STDEV(C21:G21)</f>
+        <f t="shared" si="5"/>
         <v>1.6701736436670294</v>
       </c>
       <c r="J21">
-        <f>H21+$K$2</f>
+        <f t="shared" si="6"/>
         <v>62.539999999999992</v>
       </c>
+      <c r="O21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:Z21" si="13">P9+($AB$2-P$2)</f>
+        <v>57.590909090909086</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="13"/>
+        <v>57.870909090909088</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="13"/>
+        <v>58.410909090909087</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="13"/>
+        <v>58.150909090909089</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="13"/>
+        <v>58.140909090909084</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="13"/>
+        <v>58.800909090909087</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="13"/>
+        <v>58.280909090909091</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="13"/>
+        <v>58.630909090909086</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="13"/>
+        <v>58.36090909090909</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="13"/>
+        <v>58.350909090909084</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="13"/>
+        <v>58.240909090909085</v>
+      </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>57.56</v>
       </c>
@@ -2540,19 +5552,66 @@
         <v>53.66</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(C22:G22)</f>
+        <f t="shared" si="4"/>
         <v>55.736000000000004</v>
       </c>
       <c r="I22">
-        <f>STDEV(C22:G22)</f>
+        <f t="shared" si="5"/>
         <v>1.6891062725595472</v>
       </c>
       <c r="J22">
-        <f>H22+$K$2</f>
+        <f t="shared" si="6"/>
         <v>60.879999999999995</v>
       </c>
+      <c r="O22">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:Z22" si="14">P10+($AB$2-P$2)</f>
+        <v>57.410909090909087</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="14"/>
+        <v>57.770909090909086</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="14"/>
+        <v>58.390909090909091</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="14"/>
+        <v>58.150909090909089</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="14"/>
+        <v>58.100909090909084</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="14"/>
+        <v>58.810909090909092</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="14"/>
+        <v>58.290909090909089</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="14"/>
+        <v>58.620909090909088</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="14"/>
+        <v>58.390909090909084</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="14"/>
+        <v>58.360909090909082</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="14"/>
+        <v>58.220909090909089</v>
+      </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>53.38</v>
       </c>
@@ -2569,19 +5628,66 @@
         <v>54.9</v>
       </c>
       <c r="H23">
-        <f>AVERAGE(C23:G23)</f>
+        <f t="shared" si="4"/>
         <v>55.483999999999995</v>
       </c>
       <c r="I23">
-        <f>STDEV(C23:G23)</f>
+        <f t="shared" si="5"/>
         <v>1.9614994264592576</v>
       </c>
       <c r="J23">
-        <f>H23+$K$2</f>
+        <f t="shared" si="6"/>
         <v>60.627999999999986</v>
       </c>
+      <c r="O23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:Z23" si="15">P11+($AB$2-P$2)</f>
+        <v>57.190909090909088</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="15"/>
+        <v>57.690909090909088</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="15"/>
+        <v>58.340909090909086</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="15"/>
+        <v>58.140909090909091</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="15"/>
+        <v>58.050909090909087</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="15"/>
+        <v>58.800909090909087</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="15"/>
+        <v>58.270909090909086</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="15"/>
+        <v>58.660909090909087</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="15"/>
+        <v>58.36090909090909</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="15"/>
+        <v>58.340909090909086</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="15"/>
+        <v>58.210909090909091</v>
+      </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>54.54</v>
       </c>
@@ -2598,19 +5704,66 @@
         <v>54.4</v>
       </c>
       <c r="H24">
-        <f>AVERAGE(C24:G24)</f>
+        <f t="shared" si="4"/>
         <v>54.451999999999998</v>
       </c>
       <c r="I24">
-        <f>STDEV(C24:G24)</f>
+        <f t="shared" si="5"/>
         <v>0.79430472741889158</v>
       </c>
       <c r="J24">
-        <f>H24+$K$2</f>
+        <f t="shared" si="6"/>
         <v>59.595999999999989</v>
       </c>
+      <c r="O24">
+        <v>0.02</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:Z24" si="16">P12+($AB$2-P$2)</f>
+        <v>56.980909090909087</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="16"/>
+        <v>57.560909090909085</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="16"/>
+        <v>58.300909090909087</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="16"/>
+        <v>58.120909090909088</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="16"/>
+        <v>58.040909090909089</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="16"/>
+        <v>58.770909090909086</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="16"/>
+        <v>58.25090909090909</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="16"/>
+        <v>58.650909090909089</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="16"/>
+        <v>58.370909090909088</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="16"/>
+        <v>58.340909090909086</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="16"/>
+        <v>58.230909090909087</v>
+      </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>53.26</v>
       </c>
@@ -2627,19 +5780,19 @@
         <v>52.7</v>
       </c>
       <c r="H25">
-        <f>AVERAGE(C25:G25)</f>
+        <f t="shared" si="4"/>
         <v>53.996000000000002</v>
       </c>
       <c r="I25">
-        <f>STDEV(C25:G25)</f>
+        <f t="shared" si="5"/>
         <v>2.0467730699811337</v>
       </c>
       <c r="J25">
-        <f>H25+$K$2</f>
+        <f t="shared" si="6"/>
         <v>59.139999999999993</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -2650,12 +5803,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <f>J15</f>
+        <f t="shared" ref="D29:D39" si="17">J15</f>
         <v>67.867999999999995</v>
       </c>
       <c r="E29">
@@ -2663,42 +5816,42 @@
         <v>67.867999999999995</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>0.05</v>
       </c>
       <c r="D30">
-        <f>J16</f>
+        <f t="shared" si="17"/>
         <v>67.475999999999985</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E39" si="1">J3</f>
+        <f t="shared" ref="E30:E39" si="18">J3</f>
         <v>67.527999999999992</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>0.1</v>
       </c>
       <c r="D31">
-        <f>J17</f>
+        <f t="shared" si="17"/>
         <v>65.539999999999992</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>67.631999999999991</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>0.15</v>
       </c>
       <c r="D32">
-        <f>J18</f>
+        <f t="shared" si="17"/>
         <v>65.275999999999996</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>68.38</v>
       </c>
     </row>
@@ -2707,11 +5860,11 @@
         <v>0.2</v>
       </c>
       <c r="D33">
-        <f>J19</f>
+        <f t="shared" si="17"/>
         <v>63.215999999999994</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>68.043999999999997</v>
       </c>
     </row>
@@ -2720,11 +5873,11 @@
         <v>0.25</v>
       </c>
       <c r="D34">
-        <f>J20</f>
+        <f t="shared" si="17"/>
         <v>62.303999999999995</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>68.447999999999993</v>
       </c>
     </row>
@@ -2733,11 +5886,11 @@
         <v>0.3</v>
       </c>
       <c r="D35">
-        <f>J21</f>
+        <f t="shared" si="17"/>
         <v>62.539999999999992</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>67.984000000000009</v>
       </c>
     </row>
@@ -2746,11 +5899,11 @@
         <v>0.35</v>
       </c>
       <c r="D36">
-        <f>J22</f>
+        <f t="shared" si="17"/>
         <v>60.879999999999995</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>67.748000000000005</v>
       </c>
     </row>
@@ -2759,11 +5912,11 @@
         <v>0.4</v>
       </c>
       <c r="D37">
-        <f>J23</f>
+        <f t="shared" si="17"/>
         <v>60.627999999999986</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>68.068000000000012</v>
       </c>
     </row>
@@ -2772,11 +5925,11 @@
         <v>0.45</v>
       </c>
       <c r="D38">
-        <f>J24</f>
+        <f t="shared" si="17"/>
         <v>59.595999999999989</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>67.768000000000001</v>
       </c>
     </row>
@@ -2785,11 +5938,11 @@
         <v>0.5</v>
       </c>
       <c r="D39">
-        <f>J25</f>
+        <f t="shared" si="17"/>
         <v>59.139999999999993</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>67.7</v>
       </c>
     </row>
@@ -2813,91 +5966,91 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D43">
-        <f t="shared" ref="D43:D56" si="2">I3</f>
+        <f t="shared" ref="D43:D51" si="19">I3</f>
         <v>1.8256286588460418</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E52" si="3">I16</f>
+        <f t="shared" ref="E43:E52" si="20">I16</f>
         <v>2.2373913381435968</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.3626151327502591</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.5851435266246414</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.1028145809699832</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.8781160773498529</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>2.6027447051141976</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>2.2248415673930579</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>0.9743305393961561</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>2.117876294782111</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.9641995825271923</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.6701736436670294</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.4622311718739984</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.6891062725595472</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>2.0234920311184825</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.9614994264592576</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.6144101089871834</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.79430472741889158</v>
       </c>
     </row>
@@ -2907,7 +6060,7 @@
         <v>2.188332698654389</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>2.0467730699811337</v>
       </c>
     </row>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project2\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC78FFD-2116-495A-B70A-8F578FF02186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD1615-AE2E-40C6-9091-AA89F0DE50A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,92 +36,299 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>noise level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>with noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>without noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SIGMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U-norm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sigma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w/ noise injection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w/o Noise injection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>M10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">w/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oise injection</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">w/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Bayesian NN</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>σ 0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>σ 0.03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>σ 0.05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>σ 0.07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>σ 0.09</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,10 +337,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,11 +401,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -214,11 +459,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Noise</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t> injection</a:t>
+              <a:t>Noise STDEV vs Accuracy </a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -328,16 +569,16 @@
                     <c:v>1.5851435266246414</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8781160773498529</c:v>
+                    <c:v>2.0633274097922505</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.2248415673930579</c:v>
+                    <c:v>2.1227152423252629</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>2.117876294782111</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.6701736436670294</c:v>
+                    <c:v>1.7502799776035838</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>1.6891062725595472</c:v>
@@ -370,16 +611,16 @@
                     <c:v>1.5851435266246414</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8781160773498529</c:v>
+                    <c:v>2.0633274097922505</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.2248415673930579</c:v>
+                    <c:v>2.1227152423252629</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>2.117876294782111</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.6701736436670294</c:v>
+                    <c:v>1.7502799776035838</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>1.6891062725595472</c:v>
@@ -468,16 +709,16 @@
                   <c:v>65.539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.275999999999996</c:v>
+                  <c:v>64.275999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.215999999999994</c:v>
+                  <c:v>63.015999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>62.303999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.539999999999992</c:v>
+                  <c:v>61.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>60.879999999999995</c:v>
@@ -510,7 +751,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ noise injection</c:v>
+                  <c:v>w/ Noise injection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -753,20 +994,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -872,20 +1099,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1095,6 +1308,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> of Different </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise STDEV Values</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1120,19 +1367,40 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13575840845120604"/>
+          <c:y val="0.16688272049979469"/>
+          <c:w val="0.83581964584743651"/>
+          <c:h val="0.69632066049764763"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>σ 0.00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1159,7 +1427,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:f>Sheet1!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1167,76 +1435,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$14:$P$24</c:f>
+              <c:f>Sheet1!$P$2:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
+                  <c:v>82.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.290909090909089</c:v>
+                  <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.260909090909088</c:v>
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.18090909090909</c:v>
+                  <c:v>73.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.120909090909088</c:v>
+                  <c:v>70.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.940909090909088</c:v>
+                  <c:v>68.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.790909090909089</c:v>
+                  <c:v>65.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.590909090909086</c:v>
+                  <c:v>63.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.410909090909087</c:v>
+                  <c:v>62.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.190909090909088</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.980909090909087</c:v>
+                  <c:v>59.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,6 +1519,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>σ 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1277,7 +1556,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:f>Sheet1!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1285,76 +1564,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$14:$Q$24</c:f>
+              <c:f>Sheet1!$Q$2:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
+                  <c:v>78.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.060909090909085</c:v>
+                  <c:v>78.209999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.970909090909089</c:v>
+                  <c:v>77.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.980909090909087</c:v>
+                  <c:v>76.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.980909090909087</c:v>
+                  <c:v>76.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.960909090909084</c:v>
+                  <c:v>75.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.930909090909083</c:v>
+                  <c:v>74.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.870909090909088</c:v>
+                  <c:v>74.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.770909090909086</c:v>
+                  <c:v>73.41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.690909090909088</c:v>
+                  <c:v>72.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.560909090909085</c:v>
+                  <c:v>71.989999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,6 +1648,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>σ 0.02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1395,7 +1685,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:f>Sheet1!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1403,76 +1693,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$14:$R$24</c:f>
+              <c:f>Sheet1!$R$2:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
+                  <c:v>81.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.410909090909087</c:v>
+                  <c:v>81.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.400909090909089</c:v>
+                  <c:v>80.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.43090909090909</c:v>
+                  <c:v>80.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.43090909090909</c:v>
+                  <c:v>79.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.490909090909085</c:v>
+                  <c:v>78.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.43090909090909</c:v>
+                  <c:v>77.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.410909090909087</c:v>
+                  <c:v>77.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.390909090909091</c:v>
+                  <c:v>76.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.340909090909086</c:v>
+                  <c:v>75.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.300909090909087</c:v>
+                  <c:v>75.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,858 +1775,19 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="10"/>
           <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$14:$S$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.280909090909091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.270909090909086</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.260909090909088</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.210909090909091</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.18090909090909</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.150909090909089</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.150909090909089</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.140909090909091</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.120909090909088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$T$14:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.270909090909086</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.230909090909087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.25090909090909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.230909090909087</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.220909090909089</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.160909090909087</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.140909090909084</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.100909090909084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.050909090909087</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.040909090909089</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$U$14:$U$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.650909090909089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.730909090909087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.770909090909086</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.840909090909086</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.790909090909089</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.790909090909089</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.800909090909087</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.810909090909092</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.800909090909087</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.770909090909086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$V$14:$V$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.310909090909092</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.290909090909089</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.32090909090909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.32090909090909</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.300909090909087</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.270909090909086</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.280909090909091</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.290909090909089</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.270909090909086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.25090909090909</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$W$14:$W$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.440909090909088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.550909090909087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.640909090909084</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.640909090909084</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.640909090909084</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.650909090909089</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.630909090909086</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.620909090909088</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.660909090909087</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.650909090909089</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$X$14:$X$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.310909090909085</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.390909090909084</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.400909090909089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.390909090909084</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.350909090909084</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.36090909090909</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.36090909090909</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.390909090909084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.36090909090909</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.370909090909088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Y$14:$Y$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.230909090909087</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.240909090909085</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.280909090909084</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.290909090909089</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.330909090909088</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.350909090909084</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.360909090909082</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.340909090909086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.340909090909086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-DD5B-4A9E-8B15-9CCA65AEB38E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+                  <c:v>σ 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2369,7 +1820,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$24</c:f>
+              <c:f>Sheet1!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2377,76 +1828,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$14:$Z$24</c:f>
+              <c:f>Sheet1!$Z$2:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>58.330909090909088</c:v>
+                  <c:v>78.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.36090909090909</c:v>
+                  <c:v>78.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.270909090909086</c:v>
+                  <c:v>78.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.310909090909085</c:v>
+                  <c:v>78.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.260909090909088</c:v>
+                  <c:v>78.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.270909090909086</c:v>
+                  <c:v>78.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.25090909090909</c:v>
+                  <c:v>78.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.240909090909085</c:v>
+                  <c:v>78.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.220909090909089</c:v>
+                  <c:v>78.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.210909090909091</c:v>
+                  <c:v>78.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.230909090909087</c:v>
+                  <c:v>78.150000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,23 +1924,70 @@
         <c:axId val="1851056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2535,24 +2033,66 @@
         <c:axId val="1851053344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="55"/>
+          <c:min val="56.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2602,6 +2142,847 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16354638009049774"/>
+          <c:y val="0.5238232565093377"/>
+          <c:w val="0.14923642533936651"/>
+          <c:h val="0.30371157929270154"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-Aware Training</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.81665376202974627"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$L$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00FB-48E2-BAC3-CACD7E5170E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$L$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>87.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00FB-48E2-BAC3-CACD7E5170E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Bayesian NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$L$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>77.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-00FB-48E2-BAC3-CACD7E5170E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561947296"/>
+        <c:axId val="561947776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561947296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69844444444444442"/>
+          <c:y val="9.1353164187809865E-2"/>
+          <c:w val="0.28093197725284341"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2726,6 +3107,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3758,20 +4179,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320862</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411854</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3798,16 +4735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381236</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5528</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157118</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>482836</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>168747</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>258718</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3827,6 +4764,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02BAAE2-75DF-1C14-A82E-497D3203D2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4098,15 +5071,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="136" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4137,41 +5110,41 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="AB1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -4213,41 +5186,37 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>58.93</v>
+        <v>82.78</v>
       </c>
       <c r="Q2" s="1">
-        <v>57.88</v>
+        <v>78.55</v>
       </c>
       <c r="R2" s="1">
-        <v>57</v>
+        <v>81.69</v>
       </c>
       <c r="S2" s="1">
-        <v>59.22</v>
+        <v>79.2</v>
       </c>
       <c r="T2" s="1">
-        <v>58.35</v>
+        <v>77.28</v>
       </c>
       <c r="U2" s="1">
-        <v>57.79</v>
+        <v>80.849999999999994</v>
       </c>
       <c r="V2" s="1">
-        <v>58.22</v>
+        <v>82.01</v>
       </c>
       <c r="W2" s="1">
-        <v>58.42</v>
+        <v>80.91</v>
       </c>
       <c r="X2" s="1">
-        <v>58.99</v>
+        <v>79.66</v>
       </c>
       <c r="Y2" s="1">
-        <v>58.38</v>
+        <v>79.03</v>
       </c>
       <c r="Z2" s="1">
-        <v>58.46</v>
-      </c>
-      <c r="AB2">
-        <f>AVERAGE(P2:Z2)</f>
-        <v>58.330909090909088</v>
+        <v>78.63</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -4282,40 +5251,40 @@
         <v>67.527999999999992</v>
       </c>
       <c r="O3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P3" s="1">
-        <v>58.89</v>
+        <v>79.92</v>
       </c>
       <c r="Q3" s="1">
-        <v>57.61</v>
+        <v>78.209999999999994</v>
       </c>
       <c r="R3" s="1">
-        <v>57.08</v>
+        <v>81.33</v>
       </c>
       <c r="S3" s="1">
-        <v>59.22</v>
+        <v>79.2</v>
       </c>
       <c r="T3" s="1">
-        <v>58.29</v>
+        <v>77.2</v>
       </c>
       <c r="U3" s="1">
-        <v>58.11</v>
+        <v>80.78</v>
       </c>
       <c r="V3" s="1">
-        <v>58.2</v>
+        <v>82.05</v>
       </c>
       <c r="W3" s="1">
-        <v>58.53</v>
+        <v>81.02</v>
       </c>
       <c r="X3" s="1">
-        <v>58.97</v>
+        <v>79.8</v>
       </c>
       <c r="Y3" s="1">
-        <v>58.28</v>
+        <v>79.25</v>
       </c>
       <c r="Z3" s="1">
-        <v>58.49</v>
+        <v>78.819999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -4350,40 +5319,40 @@
         <v>67.631999999999991</v>
       </c>
       <c r="O4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="1">
-        <v>58.86</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="Q4" s="1">
-        <v>57.52</v>
+        <v>77.64</v>
       </c>
       <c r="R4" s="1">
-        <v>57.07</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="S4" s="1">
-        <v>59.17</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="T4" s="1">
-        <v>58.25</v>
+        <v>77.05</v>
       </c>
       <c r="U4" s="1">
-        <v>58.19</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="V4" s="1">
-        <v>58.18</v>
+        <v>82.12</v>
       </c>
       <c r="W4" s="1">
-        <v>58.64</v>
+        <v>80.930000000000007</v>
       </c>
       <c r="X4" s="1">
-        <v>59.05</v>
+        <v>79.78</v>
       </c>
       <c r="Y4" s="1">
-        <v>58.29</v>
+        <v>79.22</v>
       </c>
       <c r="Z4" s="1">
-        <v>58.4</v>
+        <v>78.849999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
@@ -4418,40 +5387,40 @@
         <v>68.38</v>
       </c>
       <c r="O5">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P5" s="1">
-        <v>58.78</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="Q5" s="1">
-        <v>57.53</v>
+        <v>76.94</v>
       </c>
       <c r="R5" s="1">
-        <v>57.1</v>
+        <v>80.25</v>
       </c>
       <c r="S5" s="1">
-        <v>59.16</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="T5" s="1">
-        <v>58.27</v>
+        <v>76.98</v>
       </c>
       <c r="U5" s="1">
-        <v>58.23</v>
+        <v>80.75</v>
       </c>
       <c r="V5" s="1">
-        <v>58.21</v>
+        <v>82.03</v>
       </c>
       <c r="W5" s="1">
-        <v>58.73</v>
+        <v>80.930000000000007</v>
       </c>
       <c r="X5" s="1">
-        <v>59.06</v>
+        <v>79.66</v>
       </c>
       <c r="Y5" s="1">
-        <v>58.33</v>
+        <v>79.23</v>
       </c>
       <c r="Z5" s="1">
-        <v>58.44</v>
+        <v>78.819999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -4486,40 +5455,40 @@
         <v>68.043999999999997</v>
       </c>
       <c r="O6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P6" s="1">
-        <v>58.72</v>
+        <v>70.650000000000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>57.53</v>
+        <v>76.23</v>
       </c>
       <c r="R6" s="1">
-        <v>57.1</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>59.15</v>
+        <v>78.77</v>
       </c>
       <c r="T6" s="1">
-        <v>58.25</v>
+        <v>76.86</v>
       </c>
       <c r="U6" s="1">
-        <v>58.3</v>
+        <v>80.569999999999993</v>
       </c>
       <c r="V6" s="1">
-        <v>58.21</v>
+        <v>81.91</v>
       </c>
       <c r="W6" s="1">
-        <v>58.73</v>
+        <v>80.88</v>
       </c>
       <c r="X6" s="1">
-        <v>59.05</v>
+        <v>79.58</v>
       </c>
       <c r="Y6" s="1">
-        <v>58.34</v>
+        <v>79.22</v>
       </c>
       <c r="Z6" s="1">
-        <v>58.39</v>
+        <v>78.81</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
@@ -4554,40 +5523,40 @@
         <v>68.447999999999993</v>
       </c>
       <c r="O7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="1">
-        <v>58.54</v>
+        <v>68.11</v>
       </c>
       <c r="Q7" s="1">
-        <v>57.51</v>
+        <v>75.55</v>
       </c>
       <c r="R7" s="1">
-        <v>57.16</v>
+        <v>78.75</v>
       </c>
       <c r="S7" s="1">
-        <v>59.1</v>
+        <v>78.52</v>
       </c>
       <c r="T7" s="1">
-        <v>58.24</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="U7" s="1">
-        <v>58.25</v>
+        <v>80.37</v>
       </c>
       <c r="V7" s="1">
-        <v>58.19</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="W7" s="1">
-        <v>58.73</v>
+        <v>80.8</v>
       </c>
       <c r="X7" s="1">
-        <v>59.01</v>
+        <v>79.48</v>
       </c>
       <c r="Y7" s="1">
-        <v>58.38</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="Z7" s="1">
-        <v>58.4</v>
+        <v>78.709999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -4622,40 +5591,40 @@
         <v>67.984000000000009</v>
       </c>
       <c r="O8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="P8" s="1">
-        <v>58.39</v>
+        <v>65.88</v>
       </c>
       <c r="Q8" s="1">
-        <v>57.48</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="R8" s="1">
-        <v>57.1</v>
+        <v>77.98</v>
       </c>
       <c r="S8" s="1">
-        <v>59.07</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="T8" s="1">
-        <v>58.18</v>
+        <v>76.42</v>
       </c>
       <c r="U8" s="1">
-        <v>58.25</v>
+        <v>80.13</v>
       </c>
       <c r="V8" s="1">
-        <v>58.16</v>
+        <v>81.569999999999993</v>
       </c>
       <c r="W8" s="1">
-        <v>58.74</v>
+        <v>80.7</v>
       </c>
       <c r="X8" s="1">
-        <v>59.02</v>
+        <v>79.42</v>
       </c>
       <c r="Y8" s="1">
-        <v>58.38</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="Z8" s="1">
-        <v>58.38</v>
+        <v>78.61</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -4690,40 +5659,40 @@
         <v>67.748000000000005</v>
       </c>
       <c r="O9">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="P9" s="1">
-        <v>58.19</v>
+        <v>63.91</v>
       </c>
       <c r="Q9" s="1">
-        <v>57.42</v>
+        <v>74.13</v>
       </c>
       <c r="R9" s="1">
-        <v>57.08</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>59.04</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="T9" s="1">
-        <v>58.16</v>
+        <v>76.19</v>
       </c>
       <c r="U9" s="1">
-        <v>58.26</v>
+        <v>79.87</v>
       </c>
       <c r="V9" s="1">
-        <v>58.17</v>
+        <v>81.349999999999994</v>
       </c>
       <c r="W9" s="1">
-        <v>58.72</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>59.02</v>
+        <v>79.34</v>
       </c>
       <c r="Y9" s="1">
-        <v>58.4</v>
+        <v>79.03</v>
       </c>
       <c r="Z9" s="1">
-        <v>58.37</v>
+        <v>78.52</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -4758,40 +5727,40 @@
         <v>68.068000000000012</v>
       </c>
       <c r="O10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P10" s="1">
-        <v>58.01</v>
+        <v>62.1</v>
       </c>
       <c r="Q10" s="1">
-        <v>57.32</v>
+        <v>73.41</v>
       </c>
       <c r="R10" s="1">
-        <v>57.06</v>
+        <v>76.52</v>
       </c>
       <c r="S10" s="1">
-        <v>59.04</v>
+        <v>77.7</v>
       </c>
       <c r="T10" s="1">
-        <v>58.12</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="U10" s="1">
-        <v>58.27</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="V10" s="1">
-        <v>58.18</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="W10" s="1">
-        <v>58.71</v>
+        <v>80.45</v>
       </c>
       <c r="X10" s="1">
-        <v>59.05</v>
+        <v>79.2</v>
       </c>
       <c r="Y10" s="1">
-        <v>58.41</v>
+        <v>78.89</v>
       </c>
       <c r="Z10" s="1">
-        <v>58.35</v>
+        <v>78.430000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -4825,41 +5794,43 @@
         <f t="shared" si="2"/>
         <v>67.768000000000001</v>
       </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="P11" s="1">
-        <v>57.79</v>
+        <v>60.5</v>
       </c>
       <c r="Q11" s="1">
-        <v>57.24</v>
+        <v>72.680000000000007</v>
       </c>
       <c r="R11" s="1">
-        <v>57.01</v>
+        <v>75.83</v>
       </c>
       <c r="S11" s="1">
-        <v>59.03</v>
+        <v>77.39</v>
       </c>
       <c r="T11" s="1">
-        <v>58.07</v>
+        <v>75.63</v>
       </c>
       <c r="U11" s="1">
-        <v>58.26</v>
+        <v>79.34</v>
       </c>
       <c r="V11" s="1">
-        <v>58.16</v>
+        <v>80.97</v>
       </c>
       <c r="W11" s="1">
-        <v>58.75</v>
+        <v>80.3</v>
       </c>
       <c r="X11" s="1">
-        <v>59.02</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>58.39</v>
+        <v>78.78</v>
       </c>
       <c r="Z11" s="1">
-        <v>58.34</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -4893,42 +5864,48 @@
         <f t="shared" si="2"/>
         <v>67.7</v>
       </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>57.58</v>
+        <v>59.05</v>
       </c>
       <c r="Q12" s="1">
-        <v>57.11</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="R12" s="1">
-        <v>56.97</v>
+        <v>75.13</v>
       </c>
       <c r="S12" s="1">
-        <v>59.01</v>
+        <v>77.05</v>
       </c>
       <c r="T12" s="1">
-        <v>58.06</v>
+        <v>75.36</v>
       </c>
       <c r="U12" s="1">
-        <v>58.23</v>
+        <v>79.08</v>
       </c>
       <c r="V12" s="1">
-        <v>58.14</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="W12" s="1">
-        <v>58.74</v>
+        <v>80.17</v>
       </c>
       <c r="X12" s="1">
-        <v>59.03</v>
+        <v>78.94</v>
       </c>
       <c r="Y12" s="1">
-        <v>58.39</v>
+        <v>78.66</v>
       </c>
       <c r="Z12" s="1">
-        <v>58.36</v>
-      </c>
+        <v>78.150000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -4955,55 +5932,13 @@
       <c r="J14" t="s">
         <v>5</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f>P2+($AB$2-P$2)</f>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ref="Q14:Z14" si="3">Q2+($AB$2-Q$2)</f>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="3"/>
-        <v>58.330909090909088</v>
-      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>60.6</v>
       </c>
@@ -5020,66 +5955,24 @@
         <v>65.739999999999995</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H25" si="4">AVERAGE(C15:G15)</f>
+        <f t="shared" ref="H15:H25" si="3">AVERAGE(C15:G15)</f>
         <v>62.724000000000004</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I25" si="5">STDEV(C15:G15)</f>
+        <f t="shared" ref="I15:I25" si="4">STDEV(C15:G15)</f>
         <v>3.2575266691156952</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J25" si="6">H15+$K$2</f>
+        <f t="shared" ref="J15:J25" si="5">H15+$K$2</f>
         <v>67.867999999999995</v>
       </c>
-      <c r="O15">
-        <v>2E-3</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ref="P15:Z15" si="7">P3+($AB$2-P$2)</f>
-        <v>58.290909090909089</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="7"/>
-        <v>58.060909090909085</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="7"/>
-        <v>58.410909090909087</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="7"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="7"/>
-        <v>58.270909090909086</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="7"/>
-        <v>58.650909090909089</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="7"/>
-        <v>58.310909090909092</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="7"/>
-        <v>58.440909090909088</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="7"/>
-        <v>58.310909090909085</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="7"/>
-        <v>58.230909090909087</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="7"/>
-        <v>58.36090909090909</v>
-      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.05</v>
+      </c>
       <c r="C16">
         <v>62.16</v>
       </c>
@@ -5096,66 +5989,22 @@
         <v>63.24</v>
       </c>
       <c r="H16">
+        <f t="shared" si="3"/>
+        <v>62.331999999999994</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="4"/>
-        <v>62.331999999999994</v>
-      </c>
-      <c r="I16">
+        <v>2.2373913381435968</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="5"/>
-        <v>2.2373913381435968</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
         <v>67.475999999999985</v>
       </c>
-      <c r="O16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ref="P16:Z16" si="8">P4+($AB$2-P$2)</f>
-        <v>58.260909090909088</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>57.970909090909089</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="8"/>
-        <v>58.400909090909089</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="8"/>
-        <v>58.280909090909091</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="8"/>
-        <v>58.230909090909087</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="8"/>
-        <v>58.730909090909087</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="8"/>
-        <v>58.290909090909089</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="8"/>
-        <v>58.550909090909087</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="8"/>
-        <v>58.390909090909084</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="8"/>
-        <v>58.240909090909085</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="8"/>
-        <v>58.270909090909086</v>
-      </c>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.1</v>
+      </c>
       <c r="C17">
         <v>59.44</v>
       </c>
@@ -5172,147 +6021,59 @@
         <v>59.86</v>
       </c>
       <c r="H17">
+        <f t="shared" si="3"/>
+        <v>60.396000000000001</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="4"/>
-        <v>60.396000000000001</v>
-      </c>
-      <c r="I17">
+        <v>1.5851435266246414</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="5"/>
-        <v>1.5851435266246414</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
         <v>65.539999999999992</v>
       </c>
-      <c r="O17">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ref="P17:Z17" si="9">P5+($AB$2-P$2)</f>
-        <v>58.18090909090909</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="9"/>
-        <v>57.980909090909087</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="9"/>
-        <v>58.43090909090909</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="9"/>
-        <v>58.270909090909086</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="9"/>
-        <v>58.25090909090909</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="9"/>
-        <v>58.770909090909086</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="9"/>
-        <v>58.32090909090909</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="9"/>
-        <v>58.640909090909084</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="9"/>
-        <v>58.400909090909089</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="9"/>
-        <v>58.280909090909084</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="9"/>
-        <v>58.310909090909085</v>
-      </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.15</v>
+      </c>
       <c r="C18">
         <v>59.54</v>
       </c>
       <c r="D18">
-        <v>60.52</v>
+        <v>59.52</v>
       </c>
       <c r="E18">
-        <v>63.18</v>
+        <v>62.18</v>
       </c>
       <c r="F18">
-        <v>58.34</v>
+        <v>57.34</v>
       </c>
       <c r="G18">
-        <v>59.08</v>
+        <v>57.08</v>
       </c>
       <c r="H18">
+        <f t="shared" si="3"/>
+        <v>59.132000000000005</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="4"/>
-        <v>60.132000000000005</v>
-      </c>
-      <c r="I18">
+        <v>2.0633274097922505</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="5"/>
-        <v>1.8781160773498529</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>65.275999999999996</v>
-      </c>
-      <c r="O18">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ref="P18:Z18" si="10">P6+($AB$2-P$2)</f>
-        <v>58.120909090909088</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="10"/>
-        <v>57.980909090909087</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="10"/>
-        <v>58.43090909090909</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="10"/>
-        <v>58.260909090909088</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="10"/>
-        <v>58.230909090909087</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="10"/>
-        <v>58.840909090909086</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="10"/>
-        <v>58.32090909090909</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="10"/>
-        <v>58.640909090909084</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="10"/>
-        <v>58.390909090909084</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="10"/>
-        <v>58.290909090909089</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="10"/>
-        <v>58.260909090909088</v>
+        <v>64.275999999999996</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.2</v>
+      </c>
       <c r="C19">
         <v>57.04</v>
       </c>
       <c r="D19">
-        <v>59.36</v>
+        <v>58.36</v>
       </c>
       <c r="E19">
         <v>61.32</v>
@@ -5324,66 +6085,22 @@
         <v>55.88</v>
       </c>
       <c r="H19">
+        <f t="shared" si="3"/>
+        <v>57.872</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="4"/>
-        <v>58.072000000000003</v>
-      </c>
-      <c r="I19">
+        <v>2.1227152423252629</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="5"/>
-        <v>2.2248415673930579</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>63.215999999999994</v>
-      </c>
-      <c r="O19">
-        <v>0.01</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ref="P19:Z19" si="11">P7+($AB$2-P$2)</f>
-        <v>57.940909090909088</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="11"/>
-        <v>57.960909090909084</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="11"/>
-        <v>58.490909090909085</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="11"/>
-        <v>58.210909090909091</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="11"/>
-        <v>58.220909090909089</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="11"/>
-        <v>58.790909090909089</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="11"/>
-        <v>58.300909090909087</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="11"/>
-        <v>58.640909090909084</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="11"/>
-        <v>58.350909090909084</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="11"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="11"/>
-        <v>58.270909090909086</v>
+        <v>63.015999999999991</v>
       </c>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.25</v>
+      </c>
       <c r="C20">
         <v>56.96</v>
       </c>
@@ -5400,66 +6117,22 @@
         <v>54.9</v>
       </c>
       <c r="H20">
+        <f t="shared" si="3"/>
+        <v>57.160000000000004</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="4"/>
-        <v>57.160000000000004</v>
-      </c>
-      <c r="I20">
+        <v>2.117876294782111</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="5"/>
-        <v>2.117876294782111</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="6"/>
         <v>62.303999999999995</v>
       </c>
-      <c r="O20">
-        <v>1.2E-2</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ref="P20:Z20" si="12">P8+($AB$2-P$2)</f>
-        <v>57.790909090909089</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="12"/>
-        <v>57.930909090909083</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="12"/>
-        <v>58.43090909090909</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="12"/>
-        <v>58.18090909090909</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="12"/>
-        <v>58.160909090909087</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="12"/>
-        <v>58.790909090909089</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="12"/>
-        <v>58.270909090909086</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="12"/>
-        <v>58.650909090909089</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="12"/>
-        <v>58.36090909090909</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="12"/>
-        <v>58.330909090909088</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="12"/>
-        <v>58.25090909090909</v>
-      </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.3</v>
+      </c>
       <c r="C21">
         <v>56.18</v>
       </c>
@@ -5467,75 +6140,31 @@
         <v>56.52</v>
       </c>
       <c r="E21">
-        <v>60.24</v>
+        <v>59.24</v>
       </c>
       <c r="F21">
         <v>57.54</v>
       </c>
       <c r="G21">
-        <v>56.5</v>
+        <v>54.5</v>
       </c>
       <c r="H21">
+        <f t="shared" si="3"/>
+        <v>56.796000000000006</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="4"/>
-        <v>57.396000000000001</v>
-      </c>
-      <c r="I21">
+        <v>1.7502799776035838</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="5"/>
-        <v>1.6701736436670294</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="6"/>
-        <v>62.539999999999992</v>
-      </c>
-      <c r="O21">
-        <v>1.4E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ref="P21:Z21" si="13">P9+($AB$2-P$2)</f>
-        <v>57.590909090909086</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="13"/>
-        <v>57.870909090909088</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="13"/>
-        <v>58.410909090909087</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="13"/>
-        <v>58.150909090909089</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="13"/>
-        <v>58.140909090909084</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="13"/>
-        <v>58.800909090909087</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="13"/>
-        <v>58.280909090909091</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="13"/>
-        <v>58.630909090909086</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="13"/>
-        <v>58.36090909090909</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="13"/>
-        <v>58.350909090909084</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="13"/>
-        <v>58.240909090909085</v>
+        <v>61.94</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.35</v>
+      </c>
       <c r="C22">
         <v>57.56</v>
       </c>
@@ -5552,66 +6181,22 @@
         <v>53.66</v>
       </c>
       <c r="H22">
+        <f t="shared" si="3"/>
+        <v>55.736000000000004</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="4"/>
-        <v>55.736000000000004</v>
-      </c>
-      <c r="I22">
+        <v>1.6891062725595472</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="5"/>
-        <v>1.6891062725595472</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="6"/>
         <v>60.879999999999995</v>
       </c>
-      <c r="O22">
-        <v>1.6E-2</v>
-      </c>
-      <c r="P22">
-        <f t="shared" ref="P22:Z22" si="14">P10+($AB$2-P$2)</f>
-        <v>57.410909090909087</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="14"/>
-        <v>57.770909090909086</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="14"/>
-        <v>58.390909090909091</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="14"/>
-        <v>58.150909090909089</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="14"/>
-        <v>58.100909090909084</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="14"/>
-        <v>58.810909090909092</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="14"/>
-        <v>58.290909090909089</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="14"/>
-        <v>58.620909090909088</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="14"/>
-        <v>58.390909090909084</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="14"/>
-        <v>58.360909090909082</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="14"/>
-        <v>58.220909090909089</v>
-      </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.4</v>
+      </c>
       <c r="C23">
         <v>53.38</v>
       </c>
@@ -5628,66 +6213,22 @@
         <v>54.9</v>
       </c>
       <c r="H23">
+        <f t="shared" si="3"/>
+        <v>55.483999999999995</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="4"/>
-        <v>55.483999999999995</v>
-      </c>
-      <c r="I23">
+        <v>1.9614994264592576</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="5"/>
-        <v>1.9614994264592576</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="6"/>
         <v>60.627999999999986</v>
       </c>
-      <c r="O23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ref="P23:Z23" si="15">P11+($AB$2-P$2)</f>
-        <v>57.190909090909088</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="15"/>
-        <v>57.690909090909088</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="15"/>
-        <v>58.340909090909086</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="15"/>
-        <v>58.140909090909091</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="15"/>
-        <v>58.050909090909087</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="15"/>
-        <v>58.800909090909087</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="15"/>
-        <v>58.270909090909086</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="15"/>
-        <v>58.660909090909087</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="15"/>
-        <v>58.36090909090909</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="15"/>
-        <v>58.340909090909086</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="15"/>
-        <v>58.210909090909091</v>
-      </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.45</v>
+      </c>
       <c r="C24">
         <v>54.54</v>
       </c>
@@ -5704,66 +6245,22 @@
         <v>54.4</v>
       </c>
       <c r="H24">
+        <f t="shared" si="3"/>
+        <v>54.451999999999998</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="4"/>
-        <v>54.451999999999998</v>
-      </c>
-      <c r="I24">
+        <v>0.79430472741889158</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="5"/>
-        <v>0.79430472741889158</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="6"/>
         <v>59.595999999999989</v>
       </c>
-      <c r="O24">
-        <v>0.02</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ref="P24:Z24" si="16">P12+($AB$2-P$2)</f>
-        <v>56.980909090909087</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="16"/>
-        <v>57.560909090909085</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="16"/>
-        <v>58.300909090909087</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="16"/>
-        <v>58.120909090909088</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="16"/>
-        <v>58.040909090909089</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="16"/>
-        <v>58.770909090909086</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="16"/>
-        <v>58.25090909090909</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="16"/>
-        <v>58.650909090909089</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="16"/>
-        <v>58.370909090909088</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="16"/>
-        <v>58.340909090909086</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="16"/>
-        <v>58.230909090909087</v>
-      </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.5</v>
+      </c>
       <c r="C25">
         <v>53.26</v>
       </c>
@@ -5780,35 +6277,35 @@
         <v>52.7</v>
       </c>
       <c r="H25">
+        <f t="shared" si="3"/>
+        <v>53.996000000000002</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="4"/>
-        <v>53.996000000000002</v>
-      </c>
-      <c r="I25">
+        <v>2.0467730699811337</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="5"/>
-        <v>2.0467730699811337</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="6"/>
         <v>59.139999999999993</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D39" si="17">J15</f>
+        <f t="shared" ref="D29:D39" si="6">J15</f>
         <v>67.867999999999995</v>
       </c>
       <c r="E29">
@@ -5816,42 +6313,42 @@
         <v>67.867999999999995</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>0.05</v>
       </c>
       <c r="D30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>67.475999999999985</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E39" si="18">J3</f>
+        <f t="shared" ref="E30:E39" si="7">J3</f>
         <v>67.527999999999992</v>
       </c>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>0.1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>65.539999999999992</v>
       </c>
       <c r="E31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>67.631999999999991</v>
       </c>
     </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>0.15</v>
       </c>
       <c r="D32">
-        <f t="shared" si="17"/>
-        <v>65.275999999999996</v>
+        <f t="shared" si="6"/>
+        <v>64.275999999999996</v>
       </c>
       <c r="E32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>68.38</v>
       </c>
     </row>
@@ -5860,11 +6357,11 @@
         <v>0.2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="17"/>
-        <v>63.215999999999994</v>
+        <f t="shared" si="6"/>
+        <v>63.015999999999991</v>
       </c>
       <c r="E33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>68.043999999999997</v>
       </c>
     </row>
@@ -5873,11 +6370,11 @@
         <v>0.25</v>
       </c>
       <c r="D34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>62.303999999999995</v>
       </c>
       <c r="E34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>68.447999999999993</v>
       </c>
     </row>
@@ -5886,11 +6383,11 @@
         <v>0.3</v>
       </c>
       <c r="D35">
-        <f t="shared" si="17"/>
-        <v>62.539999999999992</v>
+        <f t="shared" si="6"/>
+        <v>61.94</v>
       </c>
       <c r="E35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>67.984000000000009</v>
       </c>
     </row>
@@ -5899,11 +6396,11 @@
         <v>0.35</v>
       </c>
       <c r="D36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>60.879999999999995</v>
       </c>
       <c r="E36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>67.748000000000005</v>
       </c>
     </row>
@@ -5912,11 +6409,11 @@
         <v>0.4</v>
       </c>
       <c r="D37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>60.627999999999986</v>
       </c>
       <c r="E37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>68.068000000000012</v>
       </c>
     </row>
@@ -5925,11 +6422,11 @@
         <v>0.45</v>
       </c>
       <c r="D38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>59.595999999999989</v>
       </c>
       <c r="E38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>67.768000000000001</v>
       </c>
     </row>
@@ -5938,11 +6435,11 @@
         <v>0.5</v>
       </c>
       <c r="D39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>59.139999999999993</v>
       </c>
       <c r="E39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>67.7</v>
       </c>
     </row>
@@ -5966,106 +6463,297 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D43">
-        <f t="shared" ref="D43:D51" si="19">I3</f>
+        <f t="shared" ref="D43:D51" si="8">I3</f>
         <v>1.8256286588460418</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E52" si="20">I16</f>
+        <f t="shared" ref="E43:E52" si="9">I16</f>
         <v>2.2373913381435968</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>1.3626151327502591</v>
       </c>
       <c r="E44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>1.5851435266246414</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>1.1028145809699832</v>
       </c>
       <c r="E45">
-        <f t="shared" si="20"/>
-        <v>1.8781160773498529</v>
+        <f t="shared" si="9"/>
+        <v>2.0633274097922505</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>2.6027447051141976</v>
       </c>
       <c r="E46">
-        <f t="shared" si="20"/>
-        <v>2.2248415673930579</v>
+        <f t="shared" si="9"/>
+        <v>2.1227152423252629</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0.9743305393961561</v>
       </c>
       <c r="E47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>2.117876294782111</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>1.9641995825271923</v>
       </c>
       <c r="E48">
-        <f t="shared" si="20"/>
-        <v>1.6701736436670294</v>
+        <f t="shared" si="9"/>
+        <v>1.7502799776035838</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>1.4622311718739984</v>
       </c>
       <c r="E49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>1.6891062725595472</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>2.0234920311184825</v>
       </c>
       <c r="E50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>1.9614994264592576</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>1.6144101089871834</v>
       </c>
       <c r="E51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>0.79430472741889158</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D52">
         <f>I12</f>
         <v>2.188332698654389</v>
       </c>
       <c r="E52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>2.0467730699811337</v>
       </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.1</v>
+      </c>
+      <c r="D53">
+        <v>0.2</v>
+      </c>
+      <c r="E53">
+        <v>0.3</v>
+      </c>
+      <c r="F53">
+        <v>0.4</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="H53">
+        <v>0.6</v>
+      </c>
+      <c r="I53">
+        <v>0.7</v>
+      </c>
+      <c r="J53">
+        <v>0.8</v>
+      </c>
+      <c r="K53">
+        <v>0.9</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>89.28</v>
+      </c>
+      <c r="C54" s="1">
+        <v>87.78</v>
+      </c>
+      <c r="D54" s="1">
+        <v>85.94</v>
+      </c>
+      <c r="E54" s="1">
+        <v>84.18</v>
+      </c>
+      <c r="F54" s="1">
+        <v>82.47</v>
+      </c>
+      <c r="G54" s="1">
+        <v>80.88</v>
+      </c>
+      <c r="H54" s="1">
+        <v>79.33</v>
+      </c>
+      <c r="I54" s="1">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="J54" s="1">
+        <v>76.34</v>
+      </c>
+      <c r="K54" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L54" s="1">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1">
+        <v>87.56</v>
+      </c>
+      <c r="C55" s="1">
+        <v>87.63</v>
+      </c>
+      <c r="D55" s="1">
+        <v>87.64</v>
+      </c>
+      <c r="E55" s="1">
+        <v>87.61</v>
+      </c>
+      <c r="F55" s="1">
+        <v>87.58</v>
+      </c>
+      <c r="G55" s="1">
+        <v>87.59</v>
+      </c>
+      <c r="H55" s="1">
+        <v>87.59</v>
+      </c>
+      <c r="I55" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="J55" s="1">
+        <v>87.58</v>
+      </c>
+      <c r="K55" s="1">
+        <v>87.58</v>
+      </c>
+      <c r="L55" s="1">
+        <v>87.57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1">
+        <v>77.02</v>
+      </c>
+      <c r="C56" s="1">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="D56" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E56" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F56" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="G56" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="H56" s="1">
+        <v>76.87</v>
+      </c>
+      <c r="I56" s="1">
+        <v>76.84</v>
+      </c>
+      <c r="J56" s="1">
+        <v>76.84</v>
+      </c>
+      <c r="K56" s="1">
+        <v>76.83</v>
+      </c>
+      <c r="L56" s="1">
+        <v>76.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project2\noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD1615-AE2E-40C6-9091-AA89F0DE50A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790ECDF-D567-4869-AF94-FE9B4691693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>noise level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2268,12 +2268,20 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t>-Aware Training</a:t>
+              <a:t>-Aware Training (Omniglot)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16945960698689957"/>
+          <c:y val="4.77326968973747E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2834,6 +2842,7 @@
         <c:axId val="561947776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
           <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2949,8 +2958,814 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69844444444444442"/>
-          <c:y val="9.1353164187809865E-2"/>
+          <c:x val="0.69025676512051715"/>
+          <c:y val="0.30615037678762708"/>
+          <c:w val="0.28093197725284341"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-Aware Training (MNIST)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26225436681222708"/>
+          <c:y val="5.7279236276849645E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.81665376202974627"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.650000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFFB-4D85-B20E-E5E9866E56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFFB-4D85-B20E-E5E9866E56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Bayesian NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$L$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>87.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EFFB-4D85-B20E-E5E9866E56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561947296"/>
+        <c:axId val="561947776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561947296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="78"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16078078258776604"/>
+          <c:y val="0.54004059158476314"/>
           <c:w val="0.28093197725284341"/>
           <c:h val="0.23437664041994752"/>
         </c:manualLayout>
@@ -3147,6 +3962,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4695,20 +5550,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>320862</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>29060</xdr:rowOff>
+      <xdr:colOff>441512</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>143360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>411854</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>155313</xdr:rowOff>
+      <xdr:colOff>532504</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4772,15 +6143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>405130</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4803,6 +6174,194 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A5B59B-C89A-4E4F-BADF-D70F1E224ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25601</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271514</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F551B7-D3FA-1939-D330-0AD22BC7A764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581851" y="4969779"/>
+          <a:ext cx="2468413" cy="2039033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100939</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124F6F03-CE2F-580E-4F86-686D521B1D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657189" y="795815"/>
+          <a:ext cx="2669249" cy="2185091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257215</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4A29EB-8F97-44C4-6B38-4D20DC511590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5684377" y="3048924"/>
+          <a:ext cx="2450053" cy="2049678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5071,15 +6630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6289,7 +7848,7 @@
         <v>59.139999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +8196,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -6714,43 +8273,156 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.1</v>
+      </c>
+      <c r="D58">
+        <v>0.2</v>
+      </c>
+      <c r="E58">
+        <v>0.3</v>
+      </c>
+      <c r="F58">
+        <v>0.4</v>
+      </c>
+      <c r="G58">
+        <v>0.5</v>
+      </c>
+      <c r="H58">
+        <v>0.6</v>
+      </c>
+      <c r="I58">
+        <v>0.7</v>
+      </c>
+      <c r="J58">
+        <v>0.8</v>
+      </c>
+      <c r="K58">
+        <v>0.9</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>90.79</v>
+      </c>
+      <c r="D59" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="E59" s="1">
+        <v>88.86</v>
+      </c>
+      <c r="F59" s="1">
+        <v>87.68</v>
+      </c>
+      <c r="G59" s="1">
+        <v>86.44</v>
+      </c>
+      <c r="H59" s="1">
+        <v>85.12</v>
+      </c>
+      <c r="I59" s="1">
+        <v>83.79</v>
+      </c>
+      <c r="J59" s="1">
+        <v>82.42</v>
+      </c>
+      <c r="K59" s="1">
+        <v>81.05</v>
+      </c>
+      <c r="L59" s="1">
+        <v>79.650000000000006</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1">
+        <v>90.25</v>
+      </c>
+      <c r="C60" s="1">
+        <v>90.21</v>
+      </c>
+      <c r="D60" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>90.21</v>
+      </c>
+      <c r="F60" s="1">
+        <v>90.26</v>
+      </c>
+      <c r="G60" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="H60" s="1">
+        <v>90.25</v>
+      </c>
+      <c r="I60" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="J60" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="K60" s="1">
+        <v>90.28</v>
+      </c>
+      <c r="L60" s="1">
+        <v>90.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1">
+        <v>87.59</v>
+      </c>
+      <c r="C61" s="1">
+        <v>87.64</v>
+      </c>
+      <c r="D61" s="1">
+        <v>87.63</v>
+      </c>
+      <c r="E61" s="1">
+        <v>87.64</v>
+      </c>
+      <c r="F61" s="1">
+        <v>87.68</v>
+      </c>
+      <c r="G61" s="1">
+        <v>87.68</v>
+      </c>
+      <c r="H61" s="1">
+        <v>87.68</v>
+      </c>
+      <c r="I61" s="1">
+        <v>87.71</v>
+      </c>
+      <c r="J61" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="K61" s="1">
+        <v>87.69</v>
+      </c>
+      <c r="L61" s="1">
+        <v>87.68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790ECDF-D567-4869-AF94-FE9B4691693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844EA1F-29EA-4248-8DBF-D0DB4EB84972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>noise level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -322,6 +322,18 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">noise level </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>omniglot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3842,6 +3854,1619 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-Aware Training (MNIST)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26225436681222708"/>
+          <c:y val="5.7279236276849645E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.81665376202974627"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$L$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>94.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.569999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0924-408A-9188-45DFFF178549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0924-408A-9188-45DFFF178549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Bayesian NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$71:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>90.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0924-408A-9188-45DFFF178549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561947296"/>
+        <c:axId val="561947776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561947296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="78"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16078078258776604"/>
+          <c:y val="0.54004059158476314"/>
+          <c:w val="0.28093197725284341"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-Aware Training (Omniglot)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16945960698689957"/>
+          <c:y val="4.77326968973747E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.81665376202974627"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.319999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAE3-44FA-9732-607703E17554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>86.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAE3-44FA-9732-607703E17554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Bayesian NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$66:$L$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAE3-44FA-9732-607703E17554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561947296"/>
+        <c:axId val="561947776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561947296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23281301764121248"/>
+          <c:y val="0.53746648933445396"/>
+          <c:w val="0.28093197725284341"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4002,6 +5627,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5551,6 +7256,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6106,16 +8843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>157118</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>40938</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224231</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>258718</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6037</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>325831</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6143,15 +8880,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>405130</xdr:colOff>
+      <xdr:colOff>389515</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>89400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>29210</xdr:colOff>
+      <xdr:colOff>13595</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>127500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6219,13 +8956,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>25601</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>8841</xdr:rowOff>
+      <xdr:rowOff>154619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>271514</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>135091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6254,8 +8991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581851" y="4969779"/>
-          <a:ext cx="2468413" cy="2039033"/>
+          <a:off x="5609648" y="5187673"/>
+          <a:ext cx="2479531" cy="2063371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6362,6 +9099,82 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF6AC29-5B24-4C0C-A2E5-DB4EA857BACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92E1BF8-B303-43DE-BC90-ADF7BF3DEA2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6630,10 +9443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8080,7 +10893,7 @@
         <v>1.7502799776035838</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D49">
         <f t="shared" si="8"/>
         <v>1.4622311718739984</v>
@@ -8090,7 +10903,7 @@
         <v>1.6891062725595472</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D50">
         <f t="shared" si="8"/>
         <v>2.0234920311184825</v>
@@ -8100,7 +10913,7 @@
         <v>1.9614994264592576</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D51">
         <f t="shared" si="8"/>
         <v>1.6144101089871834</v>
@@ -8110,7 +10923,7 @@
         <v>0.79430472741889158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D52">
         <f>I12</f>
         <v>2.188332698654389</v>
@@ -8120,9 +10933,9 @@
         <v>2.0467730699811337</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8157,8 +10970,11 @@
       <c r="L53">
         <v>1</v>
       </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -8196,7 +11012,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -8234,7 +11050,7 @@
         <v>87.57</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -8272,7 +11088,7 @@
         <v>76.84</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -8309,8 +11125,11 @@
       <c r="L58">
         <v>1</v>
       </c>
+      <c r="N58" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -8348,7 +11167,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8386,7 +11205,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -8422,6 +11241,316 @@
       </c>
       <c r="L61" s="1">
         <v>87.68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.1</v>
+      </c>
+      <c r="D63">
+        <v>0.2</v>
+      </c>
+      <c r="E63">
+        <v>0.3</v>
+      </c>
+      <c r="F63">
+        <v>0.4</v>
+      </c>
+      <c r="G63">
+        <v>0.5</v>
+      </c>
+      <c r="H63">
+        <v>0.6</v>
+      </c>
+      <c r="I63">
+        <v>0.7</v>
+      </c>
+      <c r="J63">
+        <v>0.8</v>
+      </c>
+      <c r="K63">
+        <v>0.9</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
+        <v>89.24</v>
+      </c>
+      <c r="C64" s="1">
+        <v>87.55</v>
+      </c>
+      <c r="D64" s="1">
+        <v>85.72</v>
+      </c>
+      <c r="E64" s="1">
+        <v>84.05</v>
+      </c>
+      <c r="F64" s="1">
+        <v>82.36</v>
+      </c>
+      <c r="G64" s="1">
+        <v>80.75</v>
+      </c>
+      <c r="H64" s="1">
+        <v>79.23</v>
+      </c>
+      <c r="I64" s="1">
+        <v>77.69</v>
+      </c>
+      <c r="J64" s="1">
+        <v>76.16</v>
+      </c>
+      <c r="K64" s="1">
+        <v>74.69</v>
+      </c>
+      <c r="L64" s="1">
+        <v>73.319999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1">
+        <v>86.74</v>
+      </c>
+      <c r="C65" s="1">
+        <v>86.69</v>
+      </c>
+      <c r="D65" s="1">
+        <v>86.76</v>
+      </c>
+      <c r="E65" s="1">
+        <v>86.75</v>
+      </c>
+      <c r="F65" s="1">
+        <v>86.72</v>
+      </c>
+      <c r="G65" s="1">
+        <v>86.69</v>
+      </c>
+      <c r="H65" s="1">
+        <v>86.69</v>
+      </c>
+      <c r="I65" s="1">
+        <v>86.69</v>
+      </c>
+      <c r="J65" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="K65" s="1">
+        <v>86.73</v>
+      </c>
+      <c r="L65" s="1">
+        <v>86.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1">
+        <v>84.29</v>
+      </c>
+      <c r="C66" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>84.22</v>
+      </c>
+      <c r="E66" s="1">
+        <v>84.23</v>
+      </c>
+      <c r="F66" s="1">
+        <v>84.23</v>
+      </c>
+      <c r="G66" s="1">
+        <v>84.21</v>
+      </c>
+      <c r="H66" s="1">
+        <v>84.16</v>
+      </c>
+      <c r="I66" s="1">
+        <v>84.06</v>
+      </c>
+      <c r="J66" s="1">
+        <v>84.07</v>
+      </c>
+      <c r="K66" s="1">
+        <v>84.03</v>
+      </c>
+      <c r="L66" s="1">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0.1</v>
+      </c>
+      <c r="D68">
+        <v>0.2</v>
+      </c>
+      <c r="E68">
+        <v>0.3</v>
+      </c>
+      <c r="F68">
+        <v>0.4</v>
+      </c>
+      <c r="G68">
+        <v>0.5</v>
+      </c>
+      <c r="H68">
+        <v>0.6</v>
+      </c>
+      <c r="I68">
+        <v>0.7</v>
+      </c>
+      <c r="J68">
+        <v>0.8</v>
+      </c>
+      <c r="K68">
+        <v>0.9</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>94.37</v>
+      </c>
+      <c r="C69" s="1">
+        <v>93.51</v>
+      </c>
+      <c r="D69" s="1">
+        <v>92.54</v>
+      </c>
+      <c r="E69" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="F69" s="1">
+        <v>89.92</v>
+      </c>
+      <c r="G69" s="1">
+        <v>88.44</v>
+      </c>
+      <c r="H69" s="1">
+        <v>86.86</v>
+      </c>
+      <c r="I69" s="1">
+        <v>85.09</v>
+      </c>
+      <c r="J69" s="1">
+        <v>83.26</v>
+      </c>
+      <c r="K69" s="1">
+        <v>81.42</v>
+      </c>
+      <c r="L69" s="1">
+        <v>79.569999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>89.04</v>
+      </c>
+      <c r="C70" s="1">
+        <v>89.18</v>
+      </c>
+      <c r="D70" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="E70" s="1">
+        <v>89.17</v>
+      </c>
+      <c r="F70" s="1">
+        <v>89.16</v>
+      </c>
+      <c r="G70" s="1">
+        <v>89.14</v>
+      </c>
+      <c r="H70" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="I70" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="K70" s="1">
+        <v>89.11</v>
+      </c>
+      <c r="L70" s="1">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>90.92</v>
+      </c>
+      <c r="D71" s="1">
+        <v>91.02</v>
+      </c>
+      <c r="E71" s="1">
+        <v>90.97</v>
+      </c>
+      <c r="F71" s="1">
+        <v>90.99</v>
+      </c>
+      <c r="G71" s="1">
+        <v>90.98</v>
+      </c>
+      <c r="H71" s="1">
+        <v>90.93</v>
+      </c>
+      <c r="I71" s="1">
+        <v>90.88</v>
+      </c>
+      <c r="J71" s="1">
+        <v>90.83</v>
+      </c>
+      <c r="K71" s="1">
+        <v>90.79</v>
+      </c>
+      <c r="L71" s="1">
+        <v>90.76</v>
       </c>
     </row>
   </sheetData>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project2\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844EA1F-29EA-4248-8DBF-D0DB4EB84972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C50E8FC-82A9-4EC0-AC16-AE7D23D37C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="264" windowWidth="23052" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>noise level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5467,6 +5467,3530 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-Aware Training (Omniglot)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16945960698689957"/>
+          <c:y val="4.77326968973747E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.81665376202974627"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$75:$CX$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$76:$CX$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>89.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.01</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.76</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.65</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21.41</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21.35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21.27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21.26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21.24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21.18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.08</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21.04</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20.99</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.94</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.92</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.91</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.87</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.82</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.81</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.79</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.79</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.78</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20.77</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.74</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA77-4555-83A0-112959C0604B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$75:$CX$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$77:$CX$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.67</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.77</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.92</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53.83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53.14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.59</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.92</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46.47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46.03</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44.79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43.31</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42.97</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42.64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40.82</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40.28</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39.76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39.51</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39.03</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38.57</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38.36</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38.14</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37.93</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37.72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37.14</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>36.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>36.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>36.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36.07</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35.58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35.43</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>34.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34.83</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34.69</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34.409999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA77-4555-83A0-112959C0604B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Bayesian NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$75:$CX$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$78:$CX$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>87.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.56</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54.58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52.77</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.58</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.07</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.58</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.76</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.53</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45.76</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.39</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45.02</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44.68</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.68</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43.36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.06</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42.76</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42.46</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42.17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41.89</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41.62</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.36</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.85</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39.89</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39.67</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>38.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>38.42</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>38.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>38.04</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37.85</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>37.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>37.14</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36.97</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.64</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36.32</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36.17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36.01</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35.72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA77-4555-83A0-112959C0604B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561947296"/>
+        <c:axId val="561947776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561947296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="95"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69025676512051715"/>
+          <c:y val="0.30615037678762708"/>
+          <c:w val="0.2812529082288342"/>
+          <c:h val="0.22980467342632147"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-Aware Training (MNIST)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16945960698689957"/>
+          <c:y val="4.77326968973747E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.81665376202974627"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$82:$AF$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.58925411794168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.848931924611136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.952623149688804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.118864315095799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.622776601683803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.810717055349755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.118723362727238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.095734448019364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.432823472428197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.89254117941677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158.48931924611153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.52623149688802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251.18864315095806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.22776601683825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398.10717055349761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501.18723362727269</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630.95734448019323</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.32823472428208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$83:$AF$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>87.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-869B-4C8D-BED3-F27582C670DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$82:$AF$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.58925411794168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.848931924611136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.952623149688804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.118864315095799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.622776601683803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.810717055349755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.118723362727238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.095734448019364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.432823472428197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.89254117941677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158.48931924611153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.52623149688802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251.18864315095806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.22776601683825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398.10717055349761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501.18723362727269</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630.95734448019323</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.32823472428208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$84:$AF$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>93.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73.349999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-869B-4C8D-BED3-F27582C670DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Bayesian NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$82:$AF$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.58925411794168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.848931924611136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.952623149688804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.118864315095799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.622776601683803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.810717055349755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.118723362727238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.095734448019364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.432823472428197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.89254117941677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158.48931924611153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.52623149688802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251.18864315095806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.22776601683825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398.10717055349761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501.18723362727269</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630.95734448019323</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.32823472428208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$85:$AF$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>88.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-869B-4C8D-BED3-F27582C670DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561947296"/>
+        <c:axId val="561947776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561947296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="95"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64854252982898464"/>
+          <c:y val="0.46502650676823304"/>
+          <c:w val="0.2812529082288342"/>
+          <c:h val="0.22980467342632147"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5707,6 +9231,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8288,6 +11892,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9177,6 +13813,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274595</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>54921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447865</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58697</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="圖表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB50E684-078B-4CB4-8C04-1F7EEB5A16DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>267729</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>82379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>440999</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>154803</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="圖表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3484862F-0DA7-47C1-9453-687DF86624D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9443,15 +14155,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:CX85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB90" sqref="AB90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10661,7 +15373,7 @@
         <v>59.139999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -11012,7 +15724,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -11167,7 +15879,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -11322,7 +16034,7 @@
         <v>73.319999999999993</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:102" ht="18" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -11360,7 +16072,7 @@
         <v>86.72</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -11398,7 +16110,7 @@
         <v>84.04</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -11439,7 +16151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -11477,7 +16189,7 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:102" ht="18" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -11515,7 +16227,7 @@
         <v>89.13</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -11551,6 +16263,1716 @@
       </c>
       <c r="L71" s="1">
         <v>90.76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="F75">
+        <v>40</v>
+      </c>
+      <c r="G75">
+        <v>50</v>
+      </c>
+      <c r="H75">
+        <v>60</v>
+      </c>
+      <c r="I75">
+        <v>70</v>
+      </c>
+      <c r="J75">
+        <v>80</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>100</v>
+      </c>
+      <c r="M75">
+        <v>110</v>
+      </c>
+      <c r="N75">
+        <v>120</v>
+      </c>
+      <c r="O75">
+        <v>130</v>
+      </c>
+      <c r="P75">
+        <v>140</v>
+      </c>
+      <c r="Q75">
+        <v>150</v>
+      </c>
+      <c r="R75">
+        <v>160</v>
+      </c>
+      <c r="S75">
+        <v>170</v>
+      </c>
+      <c r="T75">
+        <v>180</v>
+      </c>
+      <c r="U75">
+        <v>190</v>
+      </c>
+      <c r="V75">
+        <v>200</v>
+      </c>
+      <c r="W75">
+        <v>210</v>
+      </c>
+      <c r="X75">
+        <v>220</v>
+      </c>
+      <c r="Y75">
+        <v>230</v>
+      </c>
+      <c r="Z75">
+        <v>240</v>
+      </c>
+      <c r="AA75">
+        <v>250</v>
+      </c>
+      <c r="AB75">
+        <v>260</v>
+      </c>
+      <c r="AC75">
+        <v>270</v>
+      </c>
+      <c r="AD75">
+        <v>280</v>
+      </c>
+      <c r="AE75">
+        <v>290</v>
+      </c>
+      <c r="AF75">
+        <v>300</v>
+      </c>
+      <c r="AG75">
+        <v>310</v>
+      </c>
+      <c r="AH75">
+        <v>320</v>
+      </c>
+      <c r="AI75">
+        <v>330</v>
+      </c>
+      <c r="AJ75">
+        <v>340</v>
+      </c>
+      <c r="AK75">
+        <v>350</v>
+      </c>
+      <c r="AL75">
+        <v>360</v>
+      </c>
+      <c r="AM75">
+        <v>370</v>
+      </c>
+      <c r="AN75">
+        <v>380</v>
+      </c>
+      <c r="AO75">
+        <v>390</v>
+      </c>
+      <c r="AP75">
+        <v>400</v>
+      </c>
+      <c r="AQ75">
+        <v>410</v>
+      </c>
+      <c r="AR75">
+        <v>420</v>
+      </c>
+      <c r="AS75">
+        <v>430</v>
+      </c>
+      <c r="AT75">
+        <v>440</v>
+      </c>
+      <c r="AU75">
+        <v>450</v>
+      </c>
+      <c r="AV75">
+        <v>460</v>
+      </c>
+      <c r="AW75">
+        <v>470</v>
+      </c>
+      <c r="AX75">
+        <v>480</v>
+      </c>
+      <c r="AY75">
+        <v>490</v>
+      </c>
+      <c r="AZ75">
+        <v>500</v>
+      </c>
+      <c r="BA75">
+        <v>510</v>
+      </c>
+      <c r="BB75">
+        <v>520</v>
+      </c>
+      <c r="BC75">
+        <v>530</v>
+      </c>
+      <c r="BD75">
+        <v>540</v>
+      </c>
+      <c r="BE75">
+        <v>550</v>
+      </c>
+      <c r="BF75">
+        <v>560</v>
+      </c>
+      <c r="BG75">
+        <v>570</v>
+      </c>
+      <c r="BH75">
+        <v>580</v>
+      </c>
+      <c r="BI75">
+        <v>590</v>
+      </c>
+      <c r="BJ75">
+        <v>600</v>
+      </c>
+      <c r="BK75">
+        <v>610</v>
+      </c>
+      <c r="BL75">
+        <v>620</v>
+      </c>
+      <c r="BM75">
+        <v>630</v>
+      </c>
+      <c r="BN75">
+        <v>640</v>
+      </c>
+      <c r="BO75">
+        <v>650</v>
+      </c>
+      <c r="BP75">
+        <v>660</v>
+      </c>
+      <c r="BQ75">
+        <v>670</v>
+      </c>
+      <c r="BR75">
+        <v>680</v>
+      </c>
+      <c r="BS75">
+        <v>690</v>
+      </c>
+      <c r="BT75">
+        <v>700</v>
+      </c>
+      <c r="BU75">
+        <v>710</v>
+      </c>
+      <c r="BV75">
+        <v>720</v>
+      </c>
+      <c r="BW75">
+        <v>730</v>
+      </c>
+      <c r="BX75">
+        <v>740</v>
+      </c>
+      <c r="BY75">
+        <v>750</v>
+      </c>
+      <c r="BZ75">
+        <v>760</v>
+      </c>
+      <c r="CA75">
+        <v>770</v>
+      </c>
+      <c r="CB75">
+        <v>780</v>
+      </c>
+      <c r="CC75">
+        <v>790</v>
+      </c>
+      <c r="CD75">
+        <v>800</v>
+      </c>
+      <c r="CE75">
+        <v>810</v>
+      </c>
+      <c r="CF75">
+        <v>820</v>
+      </c>
+      <c r="CG75">
+        <v>830</v>
+      </c>
+      <c r="CH75">
+        <v>840</v>
+      </c>
+      <c r="CI75">
+        <v>850</v>
+      </c>
+      <c r="CJ75">
+        <v>860</v>
+      </c>
+      <c r="CK75">
+        <v>870</v>
+      </c>
+      <c r="CL75">
+        <v>880</v>
+      </c>
+      <c r="CM75">
+        <v>890</v>
+      </c>
+      <c r="CN75">
+        <v>900</v>
+      </c>
+      <c r="CO75">
+        <v>910</v>
+      </c>
+      <c r="CP75">
+        <v>920</v>
+      </c>
+      <c r="CQ75">
+        <v>930</v>
+      </c>
+      <c r="CR75">
+        <v>940</v>
+      </c>
+      <c r="CS75">
+        <v>950</v>
+      </c>
+      <c r="CT75">
+        <v>960</v>
+      </c>
+      <c r="CU75">
+        <v>970</v>
+      </c>
+      <c r="CV75">
+        <v>980</v>
+      </c>
+      <c r="CW75">
+        <v>990</v>
+      </c>
+      <c r="CX75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>89.96</v>
+      </c>
+      <c r="C76" s="1">
+        <v>55.51</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43.72</v>
+      </c>
+      <c r="E76" s="1">
+        <v>37.85</v>
+      </c>
+      <c r="F76" s="1">
+        <v>34.25</v>
+      </c>
+      <c r="G76" s="1">
+        <v>31.83</v>
+      </c>
+      <c r="H76" s="1">
+        <v>30.13</v>
+      </c>
+      <c r="I76" s="1">
+        <v>28.87</v>
+      </c>
+      <c r="J76" s="1">
+        <v>27.89</v>
+      </c>
+      <c r="K76" s="1">
+        <v>27.11</v>
+      </c>
+      <c r="L76" s="1">
+        <v>26.48</v>
+      </c>
+      <c r="M76" s="1">
+        <v>25.94</v>
+      </c>
+      <c r="N76" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="O76" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="P76" s="1">
+        <v>24.76</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>24.45</v>
+      </c>
+      <c r="R76" s="1">
+        <v>24.18</v>
+      </c>
+      <c r="S76" s="1">
+        <v>23.94</v>
+      </c>
+      <c r="T76" s="1">
+        <v>23.72</v>
+      </c>
+      <c r="U76" s="1">
+        <v>23.51</v>
+      </c>
+      <c r="V76" s="1">
+        <v>23.35</v>
+      </c>
+      <c r="W76" s="1">
+        <v>23.19</v>
+      </c>
+      <c r="X76" s="1">
+        <v>23.06</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>22.94</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>22.83</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>22.73</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>22.64</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>22.56</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>22.47</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>22.39</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>22.32</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>22.24</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>22.18</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>22.12</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>22.06</v>
+      </c>
+      <c r="AK76" s="1">
+        <v>22.01</v>
+      </c>
+      <c r="AL76" s="1">
+        <v>21.95</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>21.85</v>
+      </c>
+      <c r="AO76" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="AP76" s="1">
+        <v>21.76</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>21.72</v>
+      </c>
+      <c r="AR76" s="1">
+        <v>21.69</v>
+      </c>
+      <c r="AS76" s="1">
+        <v>21.65</v>
+      </c>
+      <c r="AT76" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="AU76" s="1">
+        <v>21.56</v>
+      </c>
+      <c r="AV76" s="1">
+        <v>21.53</v>
+      </c>
+      <c r="AW76" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="AX76" s="1">
+        <v>21.46</v>
+      </c>
+      <c r="AY76" s="1">
+        <v>21.43</v>
+      </c>
+      <c r="AZ76" s="1">
+        <v>21.41</v>
+      </c>
+      <c r="BA76" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="BB76" s="1">
+        <v>21.35</v>
+      </c>
+      <c r="BC76" s="1">
+        <v>21.32</v>
+      </c>
+      <c r="BD76" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="BE76" s="1">
+        <v>21.27</v>
+      </c>
+      <c r="BF76" s="1">
+        <v>21.26</v>
+      </c>
+      <c r="BG76" s="1">
+        <v>21.24</v>
+      </c>
+      <c r="BH76" s="1">
+        <v>21.22</v>
+      </c>
+      <c r="BI76" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="BJ76" s="1">
+        <v>21.18</v>
+      </c>
+      <c r="BK76" s="1">
+        <v>21.16</v>
+      </c>
+      <c r="BL76" s="1">
+        <v>21.14</v>
+      </c>
+      <c r="BM76" s="1">
+        <v>21.12</v>
+      </c>
+      <c r="BN76" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="BO76" s="1">
+        <v>21.08</v>
+      </c>
+      <c r="BP76" s="1">
+        <v>21.07</v>
+      </c>
+      <c r="BQ76" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="BR76" s="1">
+        <v>21.04</v>
+      </c>
+      <c r="BS76" s="1">
+        <v>21.02</v>
+      </c>
+      <c r="BT76" s="1">
+        <v>21</v>
+      </c>
+      <c r="BU76" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="BV76" s="1">
+        <v>20.97</v>
+      </c>
+      <c r="BW76" s="1">
+        <v>20.95</v>
+      </c>
+      <c r="BX76" s="1">
+        <v>20.94</v>
+      </c>
+      <c r="BY76" s="1">
+        <v>20.93</v>
+      </c>
+      <c r="BZ76" s="1">
+        <v>20.92</v>
+      </c>
+      <c r="CA76" s="1">
+        <v>20.91</v>
+      </c>
+      <c r="CB76" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="CC76" s="1">
+        <v>20.89</v>
+      </c>
+      <c r="CD76" s="1">
+        <v>20.88</v>
+      </c>
+      <c r="CE76" s="1">
+        <v>20.87</v>
+      </c>
+      <c r="CF76" s="1">
+        <v>20.85</v>
+      </c>
+      <c r="CG76" s="1">
+        <v>20.84</v>
+      </c>
+      <c r="CH76" s="1">
+        <v>20.84</v>
+      </c>
+      <c r="CI76" s="1">
+        <v>20.82</v>
+      </c>
+      <c r="CJ76" s="1">
+        <v>20.81</v>
+      </c>
+      <c r="CK76" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="CL76" s="1">
+        <v>20.79</v>
+      </c>
+      <c r="CM76" s="1">
+        <v>20.79</v>
+      </c>
+      <c r="CN76" s="1">
+        <v>20.78</v>
+      </c>
+      <c r="CO76" s="1">
+        <v>20.77</v>
+      </c>
+      <c r="CP76" s="1">
+        <v>20.76</v>
+      </c>
+      <c r="CQ76" s="1">
+        <v>20.76</v>
+      </c>
+      <c r="CR76" s="1">
+        <v>20.75</v>
+      </c>
+      <c r="CS76" s="1">
+        <v>20.74</v>
+      </c>
+      <c r="CT76" s="1">
+        <v>20.73</v>
+      </c>
+      <c r="CU76" s="1">
+        <v>20.73</v>
+      </c>
+      <c r="CV76" s="1">
+        <v>20.72</v>
+      </c>
+      <c r="CW76" s="1">
+        <v>20.72</v>
+      </c>
+      <c r="CX76" s="1">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:102" ht="18" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>93.74</v>
+      </c>
+      <c r="D77" s="1">
+        <v>93.35</v>
+      </c>
+      <c r="E77" s="1">
+        <v>92.99</v>
+      </c>
+      <c r="F77" s="1">
+        <v>92.62</v>
+      </c>
+      <c r="G77" s="1">
+        <v>92.15</v>
+      </c>
+      <c r="H77" s="1">
+        <v>91.52</v>
+      </c>
+      <c r="I77" s="1">
+        <v>90.84</v>
+      </c>
+      <c r="J77" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="K77" s="1">
+        <v>88.83</v>
+      </c>
+      <c r="L77" s="1">
+        <v>87.59</v>
+      </c>
+      <c r="M77" s="1">
+        <v>86.27</v>
+      </c>
+      <c r="N77" s="1">
+        <v>84.83</v>
+      </c>
+      <c r="O77" s="1">
+        <v>83.37</v>
+      </c>
+      <c r="P77" s="1">
+        <v>81.84</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="R77" s="1">
+        <v>78.75</v>
+      </c>
+      <c r="S77" s="1">
+        <v>77.19</v>
+      </c>
+      <c r="T77" s="1">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="U77" s="1">
+        <v>74.19</v>
+      </c>
+      <c r="V77" s="1">
+        <v>72.73</v>
+      </c>
+      <c r="W77" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="X77" s="1">
+        <v>69.91</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>67.28</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>62.62</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>61.56</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>60.55</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>59.58</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>58.67</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>57.77</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>56.92</v>
+      </c>
+      <c r="AK77" s="1">
+        <v>56.09</v>
+      </c>
+      <c r="AL77" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>54.56</v>
+      </c>
+      <c r="AN77" s="1">
+        <v>53.83</v>
+      </c>
+      <c r="AO77" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="AP77" s="1">
+        <v>52.47</v>
+      </c>
+      <c r="AQ77" s="1">
+        <v>51.82</v>
+      </c>
+      <c r="AR77" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="AS77" s="1">
+        <v>50.59</v>
+      </c>
+      <c r="AT77" s="1">
+        <v>50.01</v>
+      </c>
+      <c r="AU77" s="1">
+        <v>49.46</v>
+      </c>
+      <c r="AV77" s="1">
+        <v>48.92</v>
+      </c>
+      <c r="AW77" s="1">
+        <v>48.39</v>
+      </c>
+      <c r="AX77" s="1">
+        <v>47.89</v>
+      </c>
+      <c r="AY77" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="AZ77" s="1">
+        <v>46.92</v>
+      </c>
+      <c r="BA77" s="1">
+        <v>46.47</v>
+      </c>
+      <c r="BB77" s="1">
+        <v>46.03</v>
+      </c>
+      <c r="BC77" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="BD77" s="1">
+        <v>45.19</v>
+      </c>
+      <c r="BE77" s="1">
+        <v>44.79</v>
+      </c>
+      <c r="BF77" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="BG77" s="1">
+        <v>44.03</v>
+      </c>
+      <c r="BH77" s="1">
+        <v>43.66</v>
+      </c>
+      <c r="BI77" s="1">
+        <v>43.31</v>
+      </c>
+      <c r="BJ77" s="1">
+        <v>42.97</v>
+      </c>
+      <c r="BK77" s="1">
+        <v>42.64</v>
+      </c>
+      <c r="BL77" s="1">
+        <v>42.31</v>
+      </c>
+      <c r="BM77" s="1">
+        <v>42</v>
+      </c>
+      <c r="BN77" s="1">
+        <v>41.69</v>
+      </c>
+      <c r="BO77" s="1">
+        <v>41.39</v>
+      </c>
+      <c r="BP77" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="BQ77" s="1">
+        <v>40.82</v>
+      </c>
+      <c r="BR77" s="1">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="BS77" s="1">
+        <v>40.28</v>
+      </c>
+      <c r="BT77" s="1">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="BU77" s="1">
+        <v>39.76</v>
+      </c>
+      <c r="BV77" s="1">
+        <v>39.51</v>
+      </c>
+      <c r="BW77" s="1">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="BX77" s="1">
+        <v>39.03</v>
+      </c>
+      <c r="BY77" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="BZ77" s="1">
+        <v>38.57</v>
+      </c>
+      <c r="CA77" s="1">
+        <v>38.36</v>
+      </c>
+      <c r="CB77" s="1">
+        <v>38.14</v>
+      </c>
+      <c r="CC77" s="1">
+        <v>37.93</v>
+      </c>
+      <c r="CD77" s="1">
+        <v>37.72</v>
+      </c>
+      <c r="CE77" s="1">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="CF77" s="1">
+        <v>37.33</v>
+      </c>
+      <c r="CG77" s="1">
+        <v>37.14</v>
+      </c>
+      <c r="CH77" s="1">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="CI77" s="1">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="CJ77" s="1">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="CK77" s="1">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="CL77" s="1">
+        <v>36.24</v>
+      </c>
+      <c r="CM77" s="1">
+        <v>36.07</v>
+      </c>
+      <c r="CN77" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="CO77" s="1">
+        <v>35.74</v>
+      </c>
+      <c r="CP77" s="1">
+        <v>35.58</v>
+      </c>
+      <c r="CQ77" s="1">
+        <v>35.43</v>
+      </c>
+      <c r="CR77" s="1">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="CS77" s="1">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="CT77" s="1">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="CU77" s="1">
+        <v>34.83</v>
+      </c>
+      <c r="CV77" s="1">
+        <v>34.69</v>
+      </c>
+      <c r="CW77" s="1">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="CX77" s="1">
+        <v>34.409999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1">
+        <v>87.57</v>
+      </c>
+      <c r="C78" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="D78" s="1">
+        <v>86.87</v>
+      </c>
+      <c r="E78" s="1">
+        <v>86.37</v>
+      </c>
+      <c r="F78" s="1">
+        <v>85.8</v>
+      </c>
+      <c r="G78" s="1">
+        <v>85.15</v>
+      </c>
+      <c r="H78" s="1">
+        <v>84.38</v>
+      </c>
+      <c r="I78" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="J78" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="K78" s="1">
+        <v>81.61</v>
+      </c>
+      <c r="L78" s="1">
+        <v>80.59</v>
+      </c>
+      <c r="M78" s="1">
+        <v>79.56</v>
+      </c>
+      <c r="N78" s="1">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="O78" s="1">
+        <v>77.33</v>
+      </c>
+      <c r="P78" s="1">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>75.11</v>
+      </c>
+      <c r="R78" s="1">
+        <v>73.97</v>
+      </c>
+      <c r="S78" s="1">
+        <v>72.87</v>
+      </c>
+      <c r="T78" s="1">
+        <v>71.790000000000006</v>
+      </c>
+      <c r="U78" s="1">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="V78" s="1">
+        <v>69.67</v>
+      </c>
+      <c r="W78" s="1">
+        <v>68.62</v>
+      </c>
+      <c r="X78" s="1">
+        <v>67.62</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>66.62</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>65.66</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>63.79</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>62.89</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>62.01</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>61.18</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>60.36</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>59.56</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>58.78</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>58.03</v>
+      </c>
+      <c r="AJ78" s="1">
+        <v>57.31</v>
+      </c>
+      <c r="AK78" s="1">
+        <v>56.59</v>
+      </c>
+      <c r="AL78" s="1">
+        <v>55.91</v>
+      </c>
+      <c r="AM78" s="1">
+        <v>55.23</v>
+      </c>
+      <c r="AN78" s="1">
+        <v>54.58</v>
+      </c>
+      <c r="AO78" s="1">
+        <v>53.96</v>
+      </c>
+      <c r="AP78" s="1">
+        <v>53.35</v>
+      </c>
+      <c r="AQ78" s="1">
+        <v>52.77</v>
+      </c>
+      <c r="AR78" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="AS78" s="1">
+        <v>51.64</v>
+      </c>
+      <c r="AT78" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="AU78" s="1">
+        <v>50.58</v>
+      </c>
+      <c r="AV78" s="1">
+        <v>50.07</v>
+      </c>
+      <c r="AW78" s="1">
+        <v>49.58</v>
+      </c>
+      <c r="AX78" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="AY78" s="1">
+        <v>48.64</v>
+      </c>
+      <c r="AZ78" s="1">
+        <v>48.19</v>
+      </c>
+      <c r="BA78" s="1">
+        <v>47.76</v>
+      </c>
+      <c r="BB78" s="1">
+        <v>47.33</v>
+      </c>
+      <c r="BC78" s="1">
+        <v>46.92</v>
+      </c>
+      <c r="BD78" s="1">
+        <v>46.53</v>
+      </c>
+      <c r="BE78" s="1">
+        <v>46.13</v>
+      </c>
+      <c r="BF78" s="1">
+        <v>45.76</v>
+      </c>
+      <c r="BG78" s="1">
+        <v>45.39</v>
+      </c>
+      <c r="BH78" s="1">
+        <v>45.02</v>
+      </c>
+      <c r="BI78" s="1">
+        <v>44.68</v>
+      </c>
+      <c r="BJ78" s="1">
+        <v>44.34</v>
+      </c>
+      <c r="BK78" s="1">
+        <v>44</v>
+      </c>
+      <c r="BL78" s="1">
+        <v>43.68</v>
+      </c>
+      <c r="BM78" s="1">
+        <v>43.36</v>
+      </c>
+      <c r="BN78" s="1">
+        <v>43.06</v>
+      </c>
+      <c r="BO78" s="1">
+        <v>42.76</v>
+      </c>
+      <c r="BP78" s="1">
+        <v>42.46</v>
+      </c>
+      <c r="BQ78" s="1">
+        <v>42.17</v>
+      </c>
+      <c r="BR78" s="1">
+        <v>41.89</v>
+      </c>
+      <c r="BS78" s="1">
+        <v>41.62</v>
+      </c>
+      <c r="BT78" s="1">
+        <v>41.36</v>
+      </c>
+      <c r="BU78" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="BV78" s="1">
+        <v>40.85</v>
+      </c>
+      <c r="BW78" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="BX78" s="1">
+        <v>40.36</v>
+      </c>
+      <c r="BY78" s="1">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="BZ78" s="1">
+        <v>39.89</v>
+      </c>
+      <c r="CA78" s="1">
+        <v>39.67</v>
+      </c>
+      <c r="CB78" s="1">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="CC78" s="1">
+        <v>39.24</v>
+      </c>
+      <c r="CD78" s="1">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="CE78" s="1">
+        <v>38.82</v>
+      </c>
+      <c r="CF78" s="1">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="CG78" s="1">
+        <v>38.42</v>
+      </c>
+      <c r="CH78" s="1">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="CI78" s="1">
+        <v>38.04</v>
+      </c>
+      <c r="CJ78" s="1">
+        <v>37.85</v>
+      </c>
+      <c r="CK78" s="1">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="CL78" s="1">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="CM78" s="1">
+        <v>37.31</v>
+      </c>
+      <c r="CN78" s="1">
+        <v>37.14</v>
+      </c>
+      <c r="CO78" s="1">
+        <v>36.97</v>
+      </c>
+      <c r="CP78" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="CQ78" s="1">
+        <v>36.64</v>
+      </c>
+      <c r="CR78" s="1">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="CS78" s="1">
+        <v>36.32</v>
+      </c>
+      <c r="CT78" s="1">
+        <v>36.17</v>
+      </c>
+      <c r="CU78" s="1">
+        <v>36.01</v>
+      </c>
+      <c r="CV78" s="1">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="CW78" s="1">
+        <v>35.72</v>
+      </c>
+      <c r="CX78" s="1">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P81" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R81" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="S81" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="T81" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="U81" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="V81" s="1">
+        <v>2</v>
+      </c>
+      <c r="W81" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="X81" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <f>10^L81</f>
+        <v>10</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ref="M82:AF82" si="10">10^M81</f>
+        <v>12.58925411794168</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="10"/>
+        <v>15.848931924611136</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="10"/>
+        <v>19.952623149688804</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="10"/>
+        <v>25.118864315095799</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="10"/>
+        <v>31.622776601683803</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="10"/>
+        <v>39.810717055349755</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="10"/>
+        <v>50.118723362727238</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="10"/>
+        <v>63.095734448019364</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="10"/>
+        <v>79.432823472428197</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="10"/>
+        <v>125.89254117941677</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="10"/>
+        <v>158.48931924611153</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="10"/>
+        <v>199.52623149688802</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="10"/>
+        <v>251.18864315095806</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="10"/>
+        <v>316.22776601683825</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="10"/>
+        <v>398.10717055349761</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="10"/>
+        <v>501.18723362727269</v>
+      </c>
+      <c r="AD82">
+        <f t="shared" si="10"/>
+        <v>630.95734448019323</v>
+      </c>
+      <c r="AE82">
+        <f t="shared" si="10"/>
+        <v>794.32823472428208</v>
+      </c>
+      <c r="AF82">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>87.76</v>
+      </c>
+      <c r="C83">
+        <v>76.23</v>
+      </c>
+      <c r="D83">
+        <v>64.97</v>
+      </c>
+      <c r="E83">
+        <v>56.62</v>
+      </c>
+      <c r="F83">
+        <v>50.61</v>
+      </c>
+      <c r="G83">
+        <v>46.16</v>
+      </c>
+      <c r="H83">
+        <v>42.82</v>
+      </c>
+      <c r="I83">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J83">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="K83">
+        <v>36.42</v>
+      </c>
+      <c r="L83">
+        <v>34.99</v>
+      </c>
+      <c r="M83">
+        <v>33.78</v>
+      </c>
+      <c r="N83">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="O83">
+        <v>31.83</v>
+      </c>
+      <c r="P83">
+        <v>31.05</v>
+      </c>
+      <c r="Q83">
+        <v>30.37</v>
+      </c>
+      <c r="R83">
+        <v>29.77</v>
+      </c>
+      <c r="S83">
+        <v>29.24</v>
+      </c>
+      <c r="T83">
+        <v>28.74</v>
+      </c>
+      <c r="U83">
+        <v>28.31</v>
+      </c>
+      <c r="V83">
+        <v>27.91</v>
+      </c>
+      <c r="W83">
+        <v>27.55</v>
+      </c>
+      <c r="X83">
+        <v>27.24</v>
+      </c>
+      <c r="Y83">
+        <v>26.95</v>
+      </c>
+      <c r="Z83">
+        <v>26.66</v>
+      </c>
+      <c r="AA83">
+        <v>26.41</v>
+      </c>
+      <c r="AB83">
+        <v>26.17</v>
+      </c>
+      <c r="AC83">
+        <v>25.95</v>
+      </c>
+      <c r="AD83">
+        <v>25.76</v>
+      </c>
+      <c r="AE83">
+        <v>25.57</v>
+      </c>
+      <c r="AF83">
+        <v>25.39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>93.68</v>
+      </c>
+      <c r="C84">
+        <v>93.66</v>
+      </c>
+      <c r="D84">
+        <v>93.62</v>
+      </c>
+      <c r="E84">
+        <v>93.61</v>
+      </c>
+      <c r="F84">
+        <v>93.55</v>
+      </c>
+      <c r="G84">
+        <v>93.45</v>
+      </c>
+      <c r="H84">
+        <v>93.4</v>
+      </c>
+      <c r="I84">
+        <v>93.35</v>
+      </c>
+      <c r="J84">
+        <v>93.33</v>
+      </c>
+      <c r="K84">
+        <v>93.31</v>
+      </c>
+      <c r="L84">
+        <v>93.23</v>
+      </c>
+      <c r="M84">
+        <v>93.18</v>
+      </c>
+      <c r="N84">
+        <v>93.1</v>
+      </c>
+      <c r="O84">
+        <v>93.03</v>
+      </c>
+      <c r="P84">
+        <v>92.94</v>
+      </c>
+      <c r="Q84">
+        <v>92.83</v>
+      </c>
+      <c r="R84">
+        <v>92.69</v>
+      </c>
+      <c r="S84">
+        <v>92.48</v>
+      </c>
+      <c r="T84">
+        <v>92.17</v>
+      </c>
+      <c r="U84">
+        <v>91.7</v>
+      </c>
+      <c r="V84">
+        <v>90.99</v>
+      </c>
+      <c r="W84">
+        <v>89.95</v>
+      </c>
+      <c r="X84">
+        <v>88.57</v>
+      </c>
+      <c r="Y84">
+        <v>86.87</v>
+      </c>
+      <c r="Z84">
+        <v>84.95</v>
+      </c>
+      <c r="AA84">
+        <v>82.92</v>
+      </c>
+      <c r="AB84">
+        <v>80.87</v>
+      </c>
+      <c r="AC84">
+        <v>78.86</v>
+      </c>
+      <c r="AD84">
+        <v>76.94</v>
+      </c>
+      <c r="AE84">
+        <v>75.09</v>
+      </c>
+      <c r="AF84">
+        <v>73.349999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>88.36</v>
+      </c>
+      <c r="C85">
+        <v>88.31</v>
+      </c>
+      <c r="D85">
+        <v>88.25</v>
+      </c>
+      <c r="E85">
+        <v>88.2</v>
+      </c>
+      <c r="F85">
+        <v>88.19</v>
+      </c>
+      <c r="G85">
+        <v>88.05</v>
+      </c>
+      <c r="H85">
+        <v>88.03</v>
+      </c>
+      <c r="I85">
+        <v>87.98</v>
+      </c>
+      <c r="J85">
+        <v>87.93</v>
+      </c>
+      <c r="K85">
+        <v>87.89</v>
+      </c>
+      <c r="L85">
+        <v>87.82</v>
+      </c>
+      <c r="M85">
+        <v>87.77</v>
+      </c>
+      <c r="N85">
+        <v>87.67</v>
+      </c>
+      <c r="O85">
+        <v>87.54</v>
+      </c>
+      <c r="P85">
+        <v>87.38</v>
+      </c>
+      <c r="Q85">
+        <v>87.14</v>
+      </c>
+      <c r="R85">
+        <v>86.86</v>
+      </c>
+      <c r="S85">
+        <v>86.43</v>
+      </c>
+      <c r="T85">
+        <v>85.87</v>
+      </c>
+      <c r="U85">
+        <v>85.12</v>
+      </c>
+      <c r="V85">
+        <v>84.12</v>
+      </c>
+      <c r="W85">
+        <v>82.91</v>
+      </c>
+      <c r="X85">
+        <v>81.45</v>
+      </c>
+      <c r="Y85">
+        <v>79.81</v>
+      </c>
+      <c r="Z85">
+        <v>78.040000000000006</v>
+      </c>
+      <c r="AA85">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="AB85">
+        <v>74.34</v>
+      </c>
+      <c r="AC85">
+        <v>72.53</v>
+      </c>
+      <c r="AD85">
+        <v>70.81</v>
+      </c>
+      <c r="AE85">
+        <v>69.16</v>
+      </c>
+      <c r="AF85">
+        <v>67.599999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844EA1F-29EA-4248-8DBF-D0DB4EB84972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37803ECE-ED00-445E-BBA0-14FCF741852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>noise level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -333,6 +333,10 @@
   </si>
   <si>
     <t>omniglot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>less kl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8844,15 +8848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>224231</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>128702</xdr:rowOff>
+      <xdr:colOff>422669</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>325831</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>93800</xdr:rowOff>
+      <xdr:colOff>524269</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8951,156 +8955,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25601</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>154619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271514</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>135091</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F551B7-D3FA-1939-D330-0AD22BC7A764}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5609648" y="5187673"/>
-          <a:ext cx="2479531" cy="2063371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100939</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28156</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="圖片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124F6F03-CE2F-580E-4F86-686D521B1D32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5657189" y="795815"/>
-          <a:ext cx="2669249" cy="2185091"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57795</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>58797</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257215</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74868</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="圖片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4A29EB-8F97-44C4-6B38-4D20DC511590}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5684377" y="3048924"/>
-          <a:ext cx="2450053" cy="2049678"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -9133,7 +8987,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9171,10 +9025,610 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>441177</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>151990</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F9EA6A-E51A-8574-F9A1-3FBA7786798F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12155348" y="2752157"/>
+          <a:ext cx="1942084" cy="1599487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>258214</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>524931</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="圖片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65453A6-98CD-AF3C-A06C-AF173D8A79A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10298932" y="2724933"/>
+          <a:ext cx="1940170" cy="1598298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>300180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="圖片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7722E583-D735-358F-6C3C-9E147B4D475F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8400727" y="2729541"/>
+          <a:ext cx="1940171" cy="1598402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>337091</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47728</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0784D6-4BA4-1BB6-E327-4DC0351CC44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6473085" y="2765885"/>
+          <a:ext cx="1941908" cy="1598299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495641</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62136</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="圖片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF33F1C7-3580-E28C-4D65-D91DCFBADC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12209812" y="4382926"/>
+          <a:ext cx="1797766" cy="1496611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447193</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="圖片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AF4308-F575-25F3-CEC3-A3402E708833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363598" y="4396208"/>
+          <a:ext cx="1797766" cy="1496611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>41360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298205</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="圖片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C935BE3-9511-58B2-B844-AB4EE84C7311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8408625" y="4342726"/>
+          <a:ext cx="1930298" cy="1606942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300117</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28066</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="圖片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7C0DFD-EB18-2825-F807-D35DCC703FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6436111" y="4331448"/>
+          <a:ext cx="1959220" cy="1632597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9279</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>39944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298158</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>20947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="圖片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFD4263-4BAC-E3C4-0291-3B90C3981712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8379734" y="6024338"/>
+          <a:ext cx="1962969" cy="1643548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485780</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>199300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="圖片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA83D78-0491-4E03-9877-75BA274E4C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12204416" y="5988544"/>
+          <a:ext cx="1945642" cy="1627019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>299316</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>517193</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="圖片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA26526-846E-6011-273D-28772FCAC29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10343861" y="6017917"/>
+          <a:ext cx="1891968" cy="1573279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>265850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>29704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="圖片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F42494-648E-A2C9-B151-867FB121747D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6412650" y="6090123"/>
+          <a:ext cx="1960883" cy="1652714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9445,8 +9899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11321,6 +11775,9 @@
       <c r="L64" s="1">
         <v>73.319999999999993</v>
       </c>
+      <c r="N64" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
@@ -11475,6 +11932,9 @@
       </c>
       <c r="L69" s="1">
         <v>79.569999999999993</v>
+      </c>
+      <c r="N69" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37803ECE-ED00-445E-BBA0-14FCF741852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83350E05-9346-45B2-8550-61BF95F27C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>noise level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5471,6 +5471,1173 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-Aware Training (MNIST)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26225436681222708"/>
+          <c:y val="5.7279236276849645E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.81665376202974627"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$74:$AF$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.58925411794168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.848931924611136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.952623149688804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.118864315095799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.622776601683803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.810717055349755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.118723362727238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.095734448019364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.432823472428197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.89254117941677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158.48931924611153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.52623149688802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251.18864315095806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.22776601683825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398.10717055349761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501.18723362727269</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630.95734448019323</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.32823472428208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$75:$AF$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>87.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F152-4975-916E-736892F66882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Noise injection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$74:$AF$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.58925411794168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.848931924611136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.952623149688804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.118864315095799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.622776601683803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.810717055349755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.118723362727238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.095734448019364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.432823472428197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.89254117941677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158.48931924611153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.52623149688802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251.18864315095806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.22776601683825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398.10717055349761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501.18723362727269</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630.95734448019323</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.32823472428208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$76:$AF$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>93.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73.349999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F152-4975-916E-736892F66882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ Bayesian NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$74:$AF$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.58925411794168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.848931924611136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.952623149688804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.118864315095799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.622776601683803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.810717055349755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.118723362727238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.095734448019364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.432823472428197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.89254117941677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158.48931924611153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.52623149688802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251.18864315095806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.22776601683825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398.10717055349761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501.18723362727269</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630.95734448019323</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.32823472428208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$77:$AF$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>88.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F152-4975-916E-736892F66882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561947296"/>
+        <c:axId val="561947776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561947296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>of Noise</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561947776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561947296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16078078258776604"/>
+          <c:y val="0.54004059158476314"/>
+          <c:w val="0.28093197725284341"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5711,6 +6878,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8292,6 +9499,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9631,6 +11354,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12961</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>64796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>192666</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1FA44C-6383-4150-AD37-B2D9F53A66D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>207347</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>80812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>447092</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>11156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB04FDF2-0C3A-64F0-BE86-C3554A73AEF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13023980" y="12813210"/>
+          <a:ext cx="4140459" cy="3105344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9897,10 +11708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z69" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11779,7 +13590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -11817,7 +13628,7 @@
         <v>86.72</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -11855,7 +13666,7 @@
         <v>84.04</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -11896,7 +13707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -11937,7 +13748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -11975,7 +13786,7 @@
         <v>89.13</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -12011,6 +13822,484 @@
       </c>
       <c r="L71" s="1">
         <v>90.76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P73" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R73" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="V73" s="1">
+        <v>2</v>
+      </c>
+      <c r="W73" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="X73" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1">
+        <v>7</v>
+      </c>
+      <c r="J74" s="1">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74:AF74" si="10">10^L73</f>
+        <v>10</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="10"/>
+        <v>12.58925411794168</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="10"/>
+        <v>15.848931924611136</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="10"/>
+        <v>19.952623149688804</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="10"/>
+        <v>25.118864315095799</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="10"/>
+        <v>31.622776601683803</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="10"/>
+        <v>39.810717055349755</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="10"/>
+        <v>50.118723362727238</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="10"/>
+        <v>63.095734448019364</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="10"/>
+        <v>79.432823472428197</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="10"/>
+        <v>125.89254117941677</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="10"/>
+        <v>158.48931924611153</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="10"/>
+        <v>199.52623149688802</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="10"/>
+        <v>251.18864315095806</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="10"/>
+        <v>316.22776601683825</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="10"/>
+        <v>398.10717055349761</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="10"/>
+        <v>501.18723362727269</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="10"/>
+        <v>630.95734448019323</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="10"/>
+        <v>794.32823472428208</v>
+      </c>
+      <c r="AF74">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>87.76</v>
+      </c>
+      <c r="C75" s="1">
+        <v>76.23</v>
+      </c>
+      <c r="D75" s="1">
+        <v>64.97</v>
+      </c>
+      <c r="E75" s="1">
+        <v>56.62</v>
+      </c>
+      <c r="F75" s="1">
+        <v>50.61</v>
+      </c>
+      <c r="G75" s="1">
+        <v>46.16</v>
+      </c>
+      <c r="H75" s="1">
+        <v>42.82</v>
+      </c>
+      <c r="I75" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J75" s="1">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="K75" s="1">
+        <v>36.42</v>
+      </c>
+      <c r="L75" s="1">
+        <v>34.99</v>
+      </c>
+      <c r="M75" s="1">
+        <v>33.78</v>
+      </c>
+      <c r="N75" s="1">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="O75" s="1">
+        <v>31.83</v>
+      </c>
+      <c r="P75" s="1">
+        <v>31.05</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>30.37</v>
+      </c>
+      <c r="R75" s="1">
+        <v>29.77</v>
+      </c>
+      <c r="S75" s="1">
+        <v>29.24</v>
+      </c>
+      <c r="T75" s="1">
+        <v>28.74</v>
+      </c>
+      <c r="U75" s="1">
+        <v>28.31</v>
+      </c>
+      <c r="V75" s="1">
+        <v>27.91</v>
+      </c>
+      <c r="W75" s="1">
+        <v>27.55</v>
+      </c>
+      <c r="X75" s="1">
+        <v>27.24</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>26.95</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>26.41</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>26.17</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>25.95</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>25.76</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>25.57</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>25.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>93.68</v>
+      </c>
+      <c r="C76" s="1">
+        <v>93.66</v>
+      </c>
+      <c r="D76" s="1">
+        <v>93.62</v>
+      </c>
+      <c r="E76" s="1">
+        <v>93.61</v>
+      </c>
+      <c r="F76" s="1">
+        <v>93.55</v>
+      </c>
+      <c r="G76" s="1">
+        <v>93.45</v>
+      </c>
+      <c r="H76" s="1">
+        <v>93.4</v>
+      </c>
+      <c r="I76" s="1">
+        <v>93.35</v>
+      </c>
+      <c r="J76" s="1">
+        <v>93.33</v>
+      </c>
+      <c r="K76" s="1">
+        <v>93.31</v>
+      </c>
+      <c r="L76" s="1">
+        <v>93.23</v>
+      </c>
+      <c r="M76" s="1">
+        <v>93.18</v>
+      </c>
+      <c r="N76" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>93.03</v>
+      </c>
+      <c r="P76" s="1">
+        <v>92.94</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>92.83</v>
+      </c>
+      <c r="R76" s="1">
+        <v>92.69</v>
+      </c>
+      <c r="S76" s="1">
+        <v>92.48</v>
+      </c>
+      <c r="T76" s="1">
+        <v>92.17</v>
+      </c>
+      <c r="U76" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="V76" s="1">
+        <v>90.99</v>
+      </c>
+      <c r="W76" s="1">
+        <v>89.95</v>
+      </c>
+      <c r="X76" s="1">
+        <v>88.57</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>86.87</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>84.95</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>82.92</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>80.87</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>78.86</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>76.94</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>75.09</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>73.349999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="1">
+        <v>88.36</v>
+      </c>
+      <c r="C77" s="1">
+        <v>88.31</v>
+      </c>
+      <c r="D77" s="1">
+        <v>88.25</v>
+      </c>
+      <c r="E77" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>88.19</v>
+      </c>
+      <c r="G77" s="1">
+        <v>88.05</v>
+      </c>
+      <c r="H77" s="1">
+        <v>88.03</v>
+      </c>
+      <c r="I77" s="1">
+        <v>87.98</v>
+      </c>
+      <c r="J77" s="1">
+        <v>87.93</v>
+      </c>
+      <c r="K77" s="1">
+        <v>87.89</v>
+      </c>
+      <c r="L77" s="1">
+        <v>87.82</v>
+      </c>
+      <c r="M77" s="1">
+        <v>87.77</v>
+      </c>
+      <c r="N77" s="1">
+        <v>87.67</v>
+      </c>
+      <c r="O77" s="1">
+        <v>87.54</v>
+      </c>
+      <c r="P77" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>87.14</v>
+      </c>
+      <c r="R77" s="1">
+        <v>86.86</v>
+      </c>
+      <c r="S77" s="1">
+        <v>86.43</v>
+      </c>
+      <c r="T77" s="1">
+        <v>85.87</v>
+      </c>
+      <c r="U77" s="1">
+        <v>85.12</v>
+      </c>
+      <c r="V77" s="1">
+        <v>84.12</v>
+      </c>
+      <c r="W77" s="1">
+        <v>82.91</v>
+      </c>
+      <c r="X77" s="1">
+        <v>81.45</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>79.81</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>78.040000000000006</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>74.34</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>72.53</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>70.81</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>69.16</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>67.599999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniontow\Desktop\Andy_Project\noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project2\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83350E05-9346-45B2-8550-61BF95F27C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED906BFE-3308-4F25-9C21-2337600E1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="264" windowWidth="23052" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11395,22 +11395,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>207347</xdr:colOff>
+      <xdr:colOff>99606</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>80812</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>447092</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>11156</xdr:rowOff>
+      <xdr:colOff>539391</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>55293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="圖片 9">
+        <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB04FDF2-0C3A-64F0-BE86-C3554A73AEF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D1A4FB-1734-849E-7421-8D6E573CA9C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11432,8 +11432,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13023980" y="12813210"/>
-          <a:ext cx="4140459" cy="3105344"/>
+          <a:off x="12642724" y="13611411"/>
+          <a:ext cx="4257255" cy="3192941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>67553</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>155389</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>49604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12012357-7690-987E-40E8-0E02D41F3580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15379271" y="16055244"/>
+          <a:ext cx="5009459" cy="2918854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>387883</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>102498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>475718</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>5369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="圖片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B7775F-6682-9ADF-D483-8484A4148A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10777977" y="16014851"/>
+          <a:ext cx="5009459" cy="2915012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>103086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>141625</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>5958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="圖片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245706C2-09CE-8A62-91E8-6187022B2AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6069107" y="16015439"/>
+          <a:ext cx="5009459" cy="2915013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11710,13 +11860,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z69" sqref="Z69"/>
+    <sheetView tabSelected="1" topLeftCell="K66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA104" sqref="AA104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12926,7 +13076,7 @@
         <v>59.139999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -13277,7 +13427,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -13432,7 +13582,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -13590,7 +13740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -13748,7 +13898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -14106,7 +14256,7 @@
         <v>25.39</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>10</v>
       </c>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project2\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED906BFE-3308-4F25-9C21-2337600E1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72472C3-429A-4CC0-8356-E468C7F5E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="264" windowWidth="23052" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>noise level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,22 +100,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>oise injection</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">w/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Bayesian NN</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -339,12 +323,43 @@
     <t>less kl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Baseline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oise Aware</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayesian NN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +411,14 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,12 +440,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2352,7 +2377,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/o Noise injection</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2481,7 +2506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Noise injection</c:v>
+                  <c:v>Noise Aware</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2610,7 +2635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Bayesian NN</c:v>
+                  <c:v>Bayesian NN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3159,7 +3184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/o Noise injection</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3288,7 +3313,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Noise injection</c:v>
+                  <c:v>Noise Aware</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3417,7 +3442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Bayesian NN</c:v>
+                  <c:v>Bayesian NN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3965,7 +3990,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/o Noise injection</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4094,7 +4119,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Noise injection</c:v>
+                  <c:v>Noise Aware</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4223,7 +4248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Bayesian NN</c:v>
+                  <c:v>Bayesian NN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4771,7 +4796,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/o Noise injection</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4900,7 +4925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Noise injection</c:v>
+                  <c:v>Noise Aware</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5029,7 +5054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Bayesian NN</c:v>
+                  <c:v>Bayesian NN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5578,7 +5603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/o Noise injection</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5827,7 +5852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Noise injection</c:v>
+                  <c:v>Noise Aware</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6076,7 +6101,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w/ Bayesian NN</c:v>
+                  <c:v>Bayesian NN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11312,8 +11337,8 @@
       <xdr:rowOff>53390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3486</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>29704</xdr:rowOff>
     </xdr:to>
@@ -11860,8 +11885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA104" sqref="AA104"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -11898,37 +11923,37 @@
         <v>6</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AB1" t="s">
         <v>9</v>
@@ -13350,7 +13375,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13386,12 +13411,12 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
         <v>89.28</v>
@@ -13428,8 +13453,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>10</v>
+      <c r="A55" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B55" s="1">
         <v>87.56</v>
@@ -13466,8 +13491,8 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>11</v>
+      <c r="A56" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B56" s="1">
         <v>77.02</v>
@@ -13541,12 +13566,12 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B59" s="1">
         <v>91.5</v>
@@ -13583,8 +13608,8 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>10</v>
+      <c r="A60" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B60" s="1">
         <v>90.25</v>
@@ -13621,8 +13646,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>11</v>
+      <c r="A61" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B61" s="1">
         <v>87.59</v>
@@ -13696,12 +13721,12 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B64" s="1">
         <v>89.24</v>
@@ -13737,12 +13762,12 @@
         <v>73.319999999999993</v>
       </c>
       <c r="N64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>10</v>
+      <c r="A65" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B65" s="1">
         <v>86.74</v>
@@ -13779,8 +13804,8 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>11</v>
+      <c r="A66" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B66" s="1">
         <v>84.29</v>
@@ -13854,12 +13879,12 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B69" s="1">
         <v>94.37</v>
@@ -13895,12 +13920,12 @@
         <v>79.569999999999993</v>
       </c>
       <c r="N69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>10</v>
+      <c r="A70" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B70" s="1">
         <v>89.04</v>
@@ -13937,8 +13962,8 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>11</v>
+      <c r="A71" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B71" s="1">
         <v>90.7</v>
@@ -14160,7 +14185,7 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B75" s="1">
         <v>87.76</v>
@@ -14257,8 +14282,8 @@
       </c>
     </row>
     <row r="76" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>10</v>
+      <c r="A76" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B76" s="1">
         <v>93.68</v>
@@ -14355,8 +14380,8 @@
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>11</v>
+      <c r="A77" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B77" s="1">
         <v>88.36</v>

--- a/noise/noise_data.xlsx
+++ b/noise/noise_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\project2\noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72472C3-429A-4CC0-8356-E468C7F5E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF96479-E1AC-4487-A010-57BD60E971E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5535,7 +5535,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t>-Aware Training (MNIST)</a:t>
+              <a:t>-Aware Training (Omniglot)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -11420,15 +11420,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>99606</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>386476</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>539391</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>55293</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>279414</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11457,8 +11457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12642724" y="13611411"/>
-          <a:ext cx="4257255" cy="3192941"/>
+          <a:off x="12963958" y="12792634"/>
+          <a:ext cx="4267715" cy="3112259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11885,7 +11885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
